--- a/data/hotels_by_city/Houston/Houston_shard_530.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_530.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d223416-Reviews-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Red-Roof-Inn-Suites-Houston-HumbleIAH-Airport.h688538.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531447608777&amp;cancellable=false&amp;regionId=178162&amp;vip=false&amp;c=261761be-a2bf-436e-9302-3c2e58fbb216&amp;mctc=9&amp;exp_dp=55.43&amp;exp_ts=1531447609262&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,723 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r565344641-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>223416</t>
+  </si>
+  <si>
+    <t>565344641</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Always comfortable!!</t>
+  </si>
+  <si>
+    <t>I stay here often and it’s always a good stay. They staff is friendly and made sure we had everything that we needed.  The location was awesome, were close to the mall, drug store, Walmart and several eating options. Whenever we come to this area this is where we choose to stay.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r565244982-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>565244982</t>
+  </si>
+  <si>
+    <t>Horrible horrible horrible</t>
+  </si>
+  <si>
+    <t>This place is a real joke. Stayed there because we had a long layover. Asked for airport pickup and waited for over 1 hour. Apparently the lady had come to the terminal and could not find us so she left. We were told by our hotel to look for a van with a 24h shuttle service sign on the side. She picked us up in her private car no 24h sign, of course we didn't see her. She was very cold, no apologies for making us wait, barely got a hello from her. When we got to the hotel, we asked for a shuttle the next morning. When we went to take our morning shuttle, the guy from the night before had forgotten to book the shuttle. Again we had to wait, leaving us less than 1 hour prior our international flight. Good thing airport security let us skip the lines. Also, phone started ringing at 4AM when we specifically asked for no alarm. The guy from the desk told us their system was old and sometimes it calls the wrong rooms... Hope the people that were supposed to receive that 4AM call had another alarm... I knew not to expect top hotel for that price, breakfast was ok, rooms were fine, but worst customer service I've ever seen. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This place is a real joke. Stayed there because we had a long layover. Asked for airport pickup and waited for over 1 hour. Apparently the lady had come to the terminal and could not find us so she left. We were told by our hotel to look for a van with a 24h shuttle service sign on the side. She picked us up in her private car no 24h sign, of course we didn't see her. She was very cold, no apologies for making us wait, barely got a hello from her. When we got to the hotel, we asked for a shuttle the next morning. When we went to take our morning shuttle, the guy from the night before had forgotten to book the shuttle. Again we had to wait, leaving us less than 1 hour prior our international flight. Good thing airport security let us skip the lines. Also, phone started ringing at 4AM when we specifically asked for no alarm. The guy from the desk told us their system was old and sometimes it calls the wrong rooms... Hope the people that were supposed to receive that 4AM call had another alarm... I knew not to expect top hotel for that price, breakfast was ok, rooms were fine, but worst customer service I've ever seen. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r561804300-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>561804300</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>ParkSleepFly stay : Very Poor !Terrible!</t>
+  </si>
+  <si>
+    <t>Some times just for one night , parking and fly should be ok but if we chose a cheapest  and because has breakfast at 6:30 am ( What breakfast promised for 6:30am???).Strange people out side their rooms smoking, talking loud until late close to my door , very simple. very poor.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Mark P, Manager at Red Roof Inn &amp; Suites Houston - Humble/IAH Airport, responded to this reviewResponded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Some times just for one night , parking and fly should be ok but if we chose a cheapest  and because has breakfast at 6:30 am ( What breakfast promised for 6:30am???).Strange people out side their rooms smoking, talking loud until late close to my door , very simple. very poor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r541399039-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>541399039</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Outstanding Service!</t>
+  </si>
+  <si>
+    <t>This was a last minute booking, and the staff was very pleasant and helpful.  They gave me good tips on local dining which were all very close by.  And as far as the room, it was nice, spacious and clean with everything I needed. The Wifi was fast and easy to connect to.And the price was extremely competitive!After leaving the Houston area I noticed I had left my Samsung Tablet in the room.  I contacted them and it hadn't turned up immediately.  Mark Patel the general manager located and contacted me later in the day via Facebook (I neglected to leave a contact number) with good news that they had found it.  It is on it's way to me now.Thanks again Mark for such outstanding service.  If I am in the area again I will be sure to book with you!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This was a last minute booking, and the staff was very pleasant and helpful.  They gave me good tips on local dining which were all very close by.  And as far as the room, it was nice, spacious and clean with everything I needed. The Wifi was fast and easy to connect to.And the price was extremely competitive!After leaving the Houston area I noticed I had left my Samsung Tablet in the room.  I contacted them and it hadn't turned up immediately.  Mark Patel the general manager located and contacted me later in the day via Facebook (I neglected to leave a contact number) with good news that they had found it.  It is on it's way to me now.Thanks again Mark for such outstanding service.  If I am in the area again I will be sure to book with you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r537816565-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>537816565</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>DON'T WAIST YOUR MMONEY</t>
+  </si>
+  <si>
+    <t>this hotel is not very comfortable at all. the check in was okay. but as time went on the housekeeping made myself and another couple that had children fill unwelcome and very uncomfortable. do not waste your money at this red roof inn. the continental breakfast be stale and the milk be outdated. this hotel has been renamed six times.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r526954952-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>526954952</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Going above and Beyond</t>
+  </si>
+  <si>
+    <t>First and foremost The Red Roof Inn in Humble Tx has competitive and AFFORDABLE rates that are just too hard to beat. Secondly lets talk LOCATION, LOCATION, LOCATION. They are surrounded by various restaurants, grocery and retail shopping options. They are also about a block away from the interstate. Thirdly and most importantly to me is their CUSTOMER SERVICE. From the first initial call to book my reservation up until the moment I checked out, I received nothing but first class treatment. Mark the manager was super cool easy going and very knowledgeable about the area and always went the extra mile to insure that my experience was nothing but the best. As a matter of fact. When it was time for me to check out he even helped me find lodging in another city which was huge seeing as though I had been personally trying for hours with no success. By now it should be no surprise that I highly recommend The Red Roof Inn  in Humble Tx-One Happy CustomerMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>First and foremost The Red Roof Inn in Humble Tx has competitive and AFFORDABLE rates that are just too hard to beat. Secondly lets talk LOCATION, LOCATION, LOCATION. They are surrounded by various restaurants, grocery and retail shopping options. They are also about a block away from the interstate. Thirdly and most importantly to me is their CUSTOMER SERVICE. From the first initial call to book my reservation up until the moment I checked out, I received nothing but first class treatment. Mark the manager was super cool easy going and very knowledgeable about the area and always went the extra mile to insure that my experience was nothing but the best. As a matter of fact. When it was time for me to check out he even helped me find lodging in another city which was huge seeing as though I had been personally trying for hours with no success. By now it should be no surprise that I highly recommend The Red Roof Inn  in Humble Tx-One Happy CustomerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r496983493-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>496983493</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Sleep Park and Fly</t>
+  </si>
+  <si>
+    <t>Got there in wee hours of the morning room great beds very cozyEven though shuttle services to Airport were scheduled to start at 5am they arranged to have us at the terminal at 4:00 am Left car parked for 8 days and everything was just as we left it upon return at midnight manager let us have same room as before left at 10 am next and will stay at this location again if the need arisesTHANK YOU SHUTTLE DRIVER AND MANAGERIAL STAFF</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r441530443-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>441530443</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>No concept of customer service</t>
+  </si>
+  <si>
+    <t>The location is fine, quality of the room reflects the price. You can't expect the greatest rooms for $70. But for our situation we were told there would be a shuttle to the airport from here. The day we have to leave, there is no shuttle, so they get us a taxi and pay for it, it's fine. When we get back it's "sorry no shuttle, get a taxi, you pay for it." We are tired and we want to get home and this is what the rude man tells us. It isn't their problem. It is your problem if you advertise an airport shuttle and there is none. On top of all that he is very rude about it. So stay here if you're on a budget, but do not count on any airport shuttle. Good grief.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>The location is fine, quality of the room reflects the price. You can't expect the greatest rooms for $70. But for our situation we were told there would be a shuttle to the airport from here. The day we have to leave, there is no shuttle, so they get us a taxi and pay for it, it's fine. When we get back it's "sorry no shuttle, get a taxi, you pay for it." We are tired and we want to get home and this is what the rude man tells us. It isn't their problem. It is your problem if you advertise an airport shuttle and there is none. On top of all that he is very rude about it. So stay here if you're on a budget, but do not count on any airport shuttle. Good grief.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r430525387-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>430525387</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Arrived in Houston after transatlantic flight, phone hotel and they came to get us within 15 mins, arrived at hotel was greeted by friendly staff and shown to a really clean room, bed was and still is the most comfortable we have slept in , good breakfast and hotel management went out their way to help us, Thank you for a great 5 Night stay if every back in the area will stay again. Tom &amp; Marlene</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r375502601-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>375502601</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Slept in our car</t>
+  </si>
+  <si>
+    <t>We arrived at 1am after traveling from Utah. We called twice to notify them that we were coming in late "no problem" we were told.  We emptied out our van, walked to the sketchy outside lobby window and were told that he gave our room away 7 hours prior. We were flying out the next day for a week of relaxation that my daughter and I had planned for months. I asked to speak to the manager.. He refused. He did say "sorry what do you want me to do now?"   WHAT! I was so tired, furious and starving. The area that this hotel is in is so sketchy. I asked if I could sleep in the car!  "Sure!"   This is not what human dignity and humanity is about.  This is AMERICA not a third world country. The customer service was abominable. Stay away.  I called the park and ride people and they refunded us our money right away.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We arrived at 1am after traveling from Utah. We called twice to notify them that we were coming in late "no problem" we were told.  We emptied out our van, walked to the sketchy outside lobby window and were told that he gave our room away 7 hours prior. We were flying out the next day for a week of relaxation that my daughter and I had planned for months. I asked to speak to the manager.. He refused. He did say "sorry what do you want me to do now?"   WHAT! I was so tired, furious and starving. The area that this hotel is in is so sketchy. I asked if I could sleep in the car!  "Sure!"   This is not what human dignity and humanity is about.  This is AMERICA not a third world country. The customer service was abominable. Stay away.  I called the park and ride people and they refunded us our money right away.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r372200133-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>372200133</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Just Ok</t>
+  </si>
+  <si>
+    <t>We booked a room to stay, park and fly. We drove up, there were people sitting outside of rooms, hanging over the balcony shouting. Entering reception I was alarmed to see the whole front desk covered in glass. At check in, we were given the TV remote. We walked to our room, discussing whether we should go somewhere else. The room was ok, although the TV didn't work even after getting another remote. We decided to stay as we were there. The shuttle got us to the airport and picked us up at the end of our trip. Our car was as we left it, so I would say it's fine as a park, sleep and fly, but I'm not sure if I would stay for an extended time.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked a room to stay, park and fly. We drove up, there were people sitting outside of rooms, hanging over the balcony shouting. Entering reception I was alarmed to see the whole front desk covered in glass. At check in, we were given the TV remote. We walked to our room, discussing whether we should go somewhere else. The room was ok, although the TV didn't work even after getting another remote. We decided to stay as we were there. The shuttle got us to the airport and picked us up at the end of our trip. Our car was as we left it, so I would say it's fine as a park, sleep and fly, but I'm not sure if I would stay for an extended time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r358365183-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>358365183</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Perfect stay before our flight out!</t>
+  </si>
+  <si>
+    <t>Very pleasant stay!! Our flight was leaving at 5:15 am, and they were more than helpful making sure they were available for us to be shuttled at 3:00 am. They even gave us a wake up call at 2:30 am. Very comfortable beds and clean rooms! Everything looked updated and brand new A/C units were installed also! Very spacious for my family of four, and well worth the drive into Houston to get some much needed rest before a long day of travel ahead! Very accommodating for all of our needs, and hospitable towards us!  A+ for anyone with high regards to a clean hotel traveling on a budget! Great stay!!! I would book this place again!! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Very pleasant stay!! Our flight was leaving at 5:15 am, and they were more than helpful making sure they were available for us to be shuttled at 3:00 am. They even gave us a wake up call at 2:30 am. Very comfortable beds and clean rooms! Everything looked updated and brand new A/C units were installed also! Very spacious for my family of four, and well worth the drive into Houston to get some much needed rest before a long day of travel ahead! Very accommodating for all of our needs, and hospitable towards us!  A+ for anyone with high regards to a clean hotel traveling on a budget! Great stay!!! I would book this place again!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r285302884-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>285302884</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>worst stay ever</t>
+  </si>
+  <si>
+    <t>I had little choice but to stay at this hotel, offered by an airline after my flight was cancelled. The "free" shuttle arrived 70 minutes late, despite hotel clerk's insistence in four phone calls that it was "only 3 minutes away." The next morning the shuttle back to airport was late also: "Drive is late," clerk helpfully informed us. Room was adequate in terms of size and even reasonably clean (Do tip poor housekeepers who actually have to work at this place)bu nothing worked: no TV remote, no coffee pot for coffee maker, a non functioning,etc.  Breakfast possibly the worst I have ever been offered: 2 cold cereals, both ferociously sweetened, and no milk.  Cheap bread with no butter, no fruit, no protein of any sort.  All in all, I"d have been better off to spend the night at the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I had little choice but to stay at this hotel, offered by an airline after my flight was cancelled. The "free" shuttle arrived 70 minutes late, despite hotel clerk's insistence in four phone calls that it was "only 3 minutes away." The next morning the shuttle back to airport was late also: "Drive is late," clerk helpfully informed us. Room was adequate in terms of size and even reasonably clean (Do tip poor housekeepers who actually have to work at this place)bu nothing worked: no TV remote, no coffee pot for coffee maker, a non functioning,etc.  Breakfast possibly the worst I have ever been offered: 2 cold cereals, both ferociously sweetened, and no milk.  Cheap bread with no butter, no fruit, no protein of any sort.  All in all, I"d have been better off to spend the night at the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r281247232-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>281247232</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Given the Choice - choose another.</t>
+  </si>
+  <si>
+    <t>We stayed across the way starting our journey and tried here on our return. Not a wise choice. We arrived late but before midnight and were informed at the impregnable reception area, after paying for a taxi since nobody was answering the phone after repeated phone calls, that the Free Shuttle service ends at 11PM - oh. The attendant was behind his sealed window and seemed not to know where to put us. He upgraded us to a room rarely commissioned for outside user and we felt honoured till we entered the room. Stark. Well yes the hotel is undergoing renovations and that is obvious. Are professionals doing this work - appears not. Anyway, the clincher was seeing a large cockroach silhouette crawling up the shower curtain while bathing. Yikes. Anyway, it died on the spot. This place is pricier than the spot across the way (Days Inn) and is certainly not as nice. Oh and the day shuttle is fine - the driver is rather "pedal to the metal" but we got to the airport in one piece. The breakfast appears skimpy to awful so we ate at IHOP, just a short walk up the road. Oh and the Wifi is FREE but barely works.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed across the way starting our journey and tried here on our return. Not a wise choice. We arrived late but before midnight and were informed at the impregnable reception area, after paying for a taxi since nobody was answering the phone after repeated phone calls, that the Free Shuttle service ends at 11PM - oh. The attendant was behind his sealed window and seemed not to know where to put us. He upgraded us to a room rarely commissioned for outside user and we felt honoured till we entered the room. Stark. Well yes the hotel is undergoing renovations and that is obvious. Are professionals doing this work - appears not. Anyway, the clincher was seeing a large cockroach silhouette crawling up the shower curtain while bathing. Yikes. Anyway, it died on the spot. This place is pricier than the spot across the way (Days Inn) and is certainly not as nice. Oh and the day shuttle is fine - the driver is rather "pedal to the metal" but we got to the airport in one piece. The breakfast appears skimpy to awful so we ate at IHOP, just a short walk up the road. Oh and the Wifi is FREE but barely works.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r273083853-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>273083853</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Really?!</t>
+  </si>
+  <si>
+    <t>We booked this motel for a one night stay so we could be close to Chez Nous and not have to drive 2 hours home.  If I hadn't prepaid we would have trashed this idea!  The reception area was a nightmare - some sort of locked bullet proof glass?  We were given a TV remote at check in - I guess they must be a high theft item.  The lights didn't work in the first room we were given - we were moved (after much confusion) to a room that upon first sight was O.K.  However when we returned from dinner we discoverd that the bathroom door creaked when moved - annoying for middle of the night bathroom needs - The room smelled and appeared to be in the middle of some sort of construction - various paint colors on one wall - light fixtures not covered and the carpet was dirty.  Upon check out (we left as early as possible, not wanting to prolong the misery) it took 5 minutes for someone to answer the "bell" and they couldn't figure out how to print a receipt and asked me if I had paid cash....really?  Horrible experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We booked this motel for a one night stay so we could be close to Chez Nous and not have to drive 2 hours home.  If I hadn't prepaid we would have trashed this idea!  The reception area was a nightmare - some sort of locked bullet proof glass?  We were given a TV remote at check in - I guess they must be a high theft item.  The lights didn't work in the first room we were given - we were moved (after much confusion) to a room that upon first sight was O.K.  However when we returned from dinner we discoverd that the bathroom door creaked when moved - annoying for middle of the night bathroom needs - The room smelled and appeared to be in the middle of some sort of construction - various paint colors on one wall - light fixtures not covered and the carpet was dirty.  Upon check out (we left as early as possible, not wanting to prolong the misery) it took 5 minutes for someone to answer the "bell" and they couldn't figure out how to print a receipt and asked me if I had paid cash....really?  Horrible experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r267407886-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>267407886</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean room, fair price</t>
+  </si>
+  <si>
+    <t>We stayed here just for one night, staff was very friendly and the price was fair. Not a 5-star motel, but the beds were good and the room was clean. Conveniently located near airport and restaurants.Will stay here again.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r263313785-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>263313785</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Reservations Don't Mean Anything!</t>
+  </si>
+  <si>
+    <t>My son and I arrived at Econo Lodge Airport Humble on 3/27/15 at 11:45pm and we were given a room with only one bed. My reservation was for two queens. When we went to the room and saw just the one bed I went back to the “prison guard window” used as a reception desk and told “Ronnie” there had been a mistake in our room. He said that was the only room left and that my reservation was not “confirmed.” Excuse me? I had a reservation confirmation which states if I do not cancel by 4:00 pm I would be charged for a night’s stay. That to me, along with my credit card information says, confirmed. Also, I received a confirmation email from Choice Hotels saying my reservation was CONFIRMED at 10:00pm that very same night. I have a medical condition in where I need to sleep alone in bed. Ronnie was unsympathetic to the situation telling me my son could sleep on a flimsy pull out couch. I’m sorry but that is NOT what I paid for. He told me to speak to the Manager in the morning but I did not have time. After pulling up my reservation again after my stay, it shows a King Bed reservation. I have the original print out show the correct information to the contrary. Seems to me someone made a mistake and is covering his tracks, Ronnie.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>My son and I arrived at Econo Lodge Airport Humble on 3/27/15 at 11:45pm and we were given a room with only one bed. My reservation was for two queens. When we went to the room and saw just the one bed I went back to the “prison guard window” used as a reception desk and told “Ronnie” there had been a mistake in our room. He said that was the only room left and that my reservation was not “confirmed.” Excuse me? I had a reservation confirmation which states if I do not cancel by 4:00 pm I would be charged for a night’s stay. That to me, along with my credit card information says, confirmed. Also, I received a confirmation email from Choice Hotels saying my reservation was CONFIRMED at 10:00pm that very same night. I have a medical condition in where I need to sleep alone in bed. Ronnie was unsympathetic to the situation telling me my son could sleep on a flimsy pull out couch. I’m sorry but that is NOT what I paid for. He told me to speak to the Manager in the morning but I did not have time. After pulling up my reservation again after my stay, it shows a King Bed reservation. I have the original print out show the correct information to the contrary. Seems to me someone made a mistake and is covering his tracks, Ronnie.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r257986598-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>257986598</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Stranded at airport</t>
+  </si>
+  <si>
+    <t>This was a stay in desperation.  This is the only way I would stay here again!  Towels like sandpaper.  Staff that didn't speak English!!  Bad when they don't understand the word "coffee"!!  When she finally made it ...it ran over and all over the floor.  Big mess.  Staff didn't know there were a dozen restaurants 2 blocks away.  We were told only choice was Burger King.  Glad to be leaving this hotel</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r246183453-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>246183453</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Overnight and parking</t>
+  </si>
+  <si>
+    <t>Very good reception at the front desk. The road noise went down considerably after 10:30 at night. Best deal for long term parking near the airport. 10 days free with one night stay. Only glitch was that the apple juice was gone by the time I had breakfast. Orange juice and coffee was fine with fresh made waffle.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r245292787-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>245292787</t>
+  </si>
+  <si>
+    <t>12/20/2014</t>
+  </si>
+  <si>
+    <t>No Frills for Low Price</t>
+  </si>
+  <si>
+    <t>This hotel will never earn more than two stars but it offers a good nights sleep at a very low price. The rooms are disappointing, the neighbors a little scary and the area is not the best near the airport. However, for the money, you will have a hard time beating this place. The breakfast is adequate and I did sleep well despite the maintenance crews who insist upon using the outside area as their place to get together and discuss their daily adventures over a few beers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r243567791-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>243567791</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>a very pitty place (can't say hotel°)</t>
+  </si>
+  <si>
+    <t>just run a away for this place ! i stay here becaause my flight was cancelled. wait 1h30 for the shuttle, once arrive a get the room i need to ask 3 time to reception desk to open the door, the keys are not working. The room was oldy bad taste of decoration and furniture. No information about the breakfast hours, internet is very bad. They can't give you any ground transport informations. I ask to deposit me to airport and then to pick me up; the chinese lady ( shey say is employee but she is the owner) answer ; i bring you to airport but then you are not anymore guest so you take a taxi. Is far away for airport and any ground transportation.So just run away and find a better place !MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>just run a away for this place ! i stay here becaause my flight was cancelled. wait 1h30 for the shuttle, once arrive a get the room i need to ask 3 time to reception desk to open the door, the keys are not working. The room was oldy bad taste of decoration and furniture. No information about the breakfast hours, internet is very bad. They can't give you any ground transport informations. I ask to deposit me to airport and then to pick me up; the chinese lady ( shey say is employee but she is the owner) answer ; i bring you to airport but then you are not anymore guest so you take a taxi. Is far away for airport and any ground transportation.So just run away and find a better place !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r233799286-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>233799286</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel for a night</t>
+  </si>
+  <si>
+    <t>The hotel was inexpensive, which means that the rooms were not great, but not at all bad for the price.  It is close to the best TexMex restaurant in America (Papasito's), and only a short shuttle ride to the airport. The staff were friendly and helpful.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r232389389-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>232389389</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>Abandon hope in airport hell</t>
+  </si>
+  <si>
+    <t>Last room available at houston intercontinental. Room with two broken locks. All blankets with patched holes. Sheets with stains. Double room had one fourth towels normally found in budget hotel.Room left uncooled and was 90 degrees at check in. Took hours to cool to reasonable temperature.In fairness, breakfast buffet looked reasonable. And airport shuttle was an amusement terror ride at no extra cost.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r230896206-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>230896206</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>I loved this hotel</t>
+  </si>
+  <si>
+    <t>I was met at the airport by the owner, he was gracious and friendly.  My room was large, very clean, good internet.  I loved the location, it was near restaurants, shopping.  The pool was inviting.  I have stayed at many hotels at the Houston airport and I would choose this one again.  The other hotels near the airport do not offer many choices for meals or shopping without getting an expensive taxi ride.  I own a hotel and found this one definitely up to me standards.  I know they are working to upgrade the place.  This will be my new go to hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r213700012-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>213700012</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Go somewhere else, it's not worth to try</t>
+  </si>
+  <si>
+    <t>I'm having the worst experience right now at this hotel.I called earlier tonight to ask about the shuttle service (the main reason for me booking it). The employee Rony said he could send someone to pick me up and I said that I was waiting for my bags and that could take a while. He said 'no problem, call when you're ready'. When I got the bags, about an hour later, I called again and he said he couldn't send someone to pick me up because it was too late - he didn't said that on the phone. So I had to get a taxi, which cost me almost $20 (with that + $80 for the room I could've gone to a much nicer hotel).When I got to the hotel, I pressed the buzzer 2 or 3 times because I didn't hear a sound and when Rony showed up he complained about me having pressed it more than one time. SO RUDE!!! He didn't even give us the Wifi password or said anything about the breakfast....  Horrible service.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I'm having the worst experience right now at this hotel.I called earlier tonight to ask about the shuttle service (the main reason for me booking it). The employee Rony said he could send someone to pick me up and I said that I was waiting for my bags and that could take a while. He said 'no problem, call when you're ready'. When I got the bags, about an hour later, I called again and he said he couldn't send someone to pick me up because it was too late - he didn't said that on the phone. So I had to get a taxi, which cost me almost $20 (with that + $80 for the room I could've gone to a much nicer hotel).When I got to the hotel, I pressed the buzzer 2 or 3 times because I didn't hear a sound and when Rony showed up he complained about me having pressed it more than one time. SO RUDE!!! He didn't even give us the Wifi password or said anything about the breakfast....  Horrible service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r210834531-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>210834531</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Stay away!</t>
+  </si>
+  <si>
+    <t>I wish I could give this place less than 1 star. In all truthfulness, do not stay here look anywhere else.  Where to start, the room smells, stains on the carpet, stains on the comforter, 1 ice machine for the hotel...doesn't work. Wifi...forget it. Toilet paper... bring your own, it's crappy no pun intended.  And on top of that the owner/management don't seem to care and give you attitude.  I stayed at the front desk for 10 minutes ringing the bell with no service. Go anywhere else!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r210666067-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>210666067</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE. SAVE YOURSELF THE TIME.</t>
+  </si>
+  <si>
+    <t>This place was terrible. I was put up here on a voucher from Delta. I was given room 210. The room was terrible. Upon opening the door a strong odor of smoke hit me. There were cigarette burns on the floor, the table, and the bed spread. There was no remote for the TV.. You have to go ask for one at the desk. The curtain was broke.. the knob on the a/c was broke.. the towels were stained (bad).. The micro wave smelled of burnt pizza and a dish was left in it because there was no turn table. The sink was missing the plug in it and it was full of hair. The couch had cigarette burns and there and there were stained on the ceiling.  I complain to Bennie... He said he could not give me another room.. He said that he could have someone remove the hair from the sink. I saw a couple with 2 children, who were also put there by Delta, went to take their 2 small kids to swim in the pool. They looked so cute and excited.. I walked over with them to the pool.. once inside the gate... The pool was green.  The mom said, "sorry guys no swimming in here." Back to the room they went.  Their room was not as bad and it was a non smoking room.. they did say that they were going to put some...This place was terrible. I was put up here on a voucher from Delta. I was given room 210. The room was terrible. Upon opening the door a strong odor of smoke hit me. There were cigarette burns on the floor, the table, and the bed spread. There was no remote for the TV.. You have to go ask for one at the desk. The curtain was broke.. the knob on the a/c was broke.. the towels were stained (bad).. The micro wave smelled of burnt pizza and a dish was left in it because there was no turn table. The sink was missing the plug in it and it was full of hair. The couch had cigarette burns and there and there were stained on the ceiling.  I complain to Bennie... He said he could not give me another room.. He said that he could have someone remove the hair from the sink. I saw a couple with 2 children, who were also put there by Delta, went to take their 2 small kids to swim in the pool. They looked so cute and excited.. I walked over with them to the pool.. once inside the gate... The pool was green.  The mom said, "sorry guys no swimming in here." Back to the room they went.  Their room was not as bad and it was a non smoking room.. they did say that they were going to put some blankets over the sheets for the kids. They were very nice people.. No food close to the area to walk to. I could not sleep there.  I asked them for my voucher back which he told me NO. I told them to just take me back to the airport.  They said it would be a bit.. making sure it was after 9:00pm so the Delta terminal was closed. I slept at the airport on the chairs... Way better than the room.  While there, 3 more people from the hotel showed up to stay at the airport too. MoreShow less</t>
+  </si>
+  <si>
+    <t>This place was terrible. I was put up here on a voucher from Delta. I was given room 210. The room was terrible. Upon opening the door a strong odor of smoke hit me. There were cigarette burns on the floor, the table, and the bed spread. There was no remote for the TV.. You have to go ask for one at the desk. The curtain was broke.. the knob on the a/c was broke.. the towels were stained (bad).. The micro wave smelled of burnt pizza and a dish was left in it because there was no turn table. The sink was missing the plug in it and it was full of hair. The couch had cigarette burns and there and there were stained on the ceiling.  I complain to Bennie... He said he could not give me another room.. He said that he could have someone remove the hair from the sink. I saw a couple with 2 children, who were also put there by Delta, went to take their 2 small kids to swim in the pool. They looked so cute and excited.. I walked over with them to the pool.. once inside the gate... The pool was green.  The mom said, "sorry guys no swimming in here." Back to the room they went.  Their room was not as bad and it was a non smoking room.. they did say that they were going to put some...This place was terrible. I was put up here on a voucher from Delta. I was given room 210. The room was terrible. Upon opening the door a strong odor of smoke hit me. There were cigarette burns on the floor, the table, and the bed spread. There was no remote for the TV.. You have to go ask for one at the desk. The curtain was broke.. the knob on the a/c was broke.. the towels were stained (bad).. The micro wave smelled of burnt pizza and a dish was left in it because there was no turn table. The sink was missing the plug in it and it was full of hair. The couch had cigarette burns and there and there were stained on the ceiling.  I complain to Bennie... He said he could not give me another room.. He said that he could have someone remove the hair from the sink. I saw a couple with 2 children, who were also put there by Delta, went to take their 2 small kids to swim in the pool. They looked so cute and excited.. I walked over with them to the pool.. once inside the gate... The pool was green.  The mom said, "sorry guys no swimming in here." Back to the room they went.  Their room was not as bad and it was a non smoking room.. they did say that they were going to put some blankets over the sheets for the kids. They were very nice people.. No food close to the area to walk to. I could not sleep there.  I asked them for my voucher back which he told me NO. I told them to just take me back to the airport.  They said it would be a bit.. making sure it was after 9:00pm so the Delta terminal was closed. I slept at the airport on the chairs... Way better than the room.  While there, 3 more people from the hotel showed up to stay at the airport too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r194529040-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>194529040</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>No room for me!</t>
+  </si>
+  <si>
+    <t>When I made the reservation, they assured me I would have a room. It was after midnight and I was exhausted. When I got to the hotel I had to wait 30 min for a desk clerk to appear and he told me they had been sold out since 6pm. Trip Advisor should have know this</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r194003655-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>194003655</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>Stay at your own risk!  Terrible!</t>
+  </si>
+  <si>
+    <t>My wife and I were traveling. Our flight into Houston was late and we missed our connecting flight.  We had to find a last-minute hotel to stay the night. This hotel looked like it might be okay based on the reviews.  Boy, what a mistake.  
+We made a reservation through Expedia for a non-smoking room with two queen beds.  Expedia listed the room as non-refundable.  
+We called the hotel for the free shuttle.  That ride should have been our first clue.   The driver drove way too fast, hitting 70 MPH+ in 45 MPH zones.  We arrived at the hotel in one piece, thankfully.  We checked in and got our room key.  We went to the room and found that the key card would turn green, but we could not open the door -- the door handle was broken and was hanging limply.  I walked back to the front desk and explained the situation.  The desk employee seemed surprised.  He walked  back with me and was able to open the room by using his key.  He said that this was he last available room.  Of course, that meant we were unable to leave the room or we would not be able to get back in.  When he opened the door, we were about knocked over by the smell of cigarette smoke.  There were ashtrays in the room.  Obviously, not a non-smoking room. There was a single King size bed in the...My wife and I were traveling. Our flight into Houston was late and we missed our connecting flight.  We had to find a last-minute hotel to stay the night. This hotel looked like it might be okay based on the reviews.  Boy, what a mistake.  We made a reservation through Expedia for a non-smoking room with two queen beds.  Expedia listed the room as non-refundable.  We called the hotel for the free shuttle.  That ride should have been our first clue.   The driver drove way too fast, hitting 70 MPH+ in 45 MPH zones.  We arrived at the hotel in one piece, thankfully.  We checked in and got our room key.  We went to the room and found that the key card would turn green, but we could not open the door -- the door handle was broken and was hanging limply.  I walked back to the front desk and explained the situation.  The desk employee seemed surprised.  He walked  back with me and was able to open the room by using his key.  He said that this was he last available room.  Of course, that meant we were unable to leave the room or we would not be able to get back in.  When he opened the door, we were about knocked over by the smell of cigarette smoke.  There were ashtrays in the room.  Obviously, not a non-smoking room. There was a single King size bed in the room -- where were the two queen beds I reserved and received confirmation for?  Where was the non-smoking room?The A/C - Heater unit was unplugged.  I plugged it in, and tried to work the unit.  The temperature control knob was missing.  I fiddled with the setting knob and managed to get the unit working, but that lasted only a few minutes before the unit died. I called the front desk and explained the situation, he said he would take care of it. No one ever showed up, and we froze all night.  The electrical outlets in the room were so worn that when we plugged in our cell phone chargers, they fell back out.  We had to brace them to keep them from falling out.  The bed sheets had ink and other stains.  The pillows were worn out and uncomfortable.  The bedding smelled of smoke.  The mattress was barely passable as a place to try to sleep.The walls and ceiling were covered with smears, smudges, and grime.  The bathroom wall had writing and graffiti on the wall. The towels were thin and scratchy. The bathroom light fixture was dirty and missing the cover.  The toilet tank cover was broken.  There was something smudged on the front of the toilet bowl.  My wife and I decided that we would have been happier staying at the airport and trying to sleep in the terminal.  This was the worst hotel stay we have ever experienced. We have crossed Econo Lodge off our list, permanently.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I were traveling. Our flight into Houston was late and we missed our connecting flight.  We had to find a last-minute hotel to stay the night. This hotel looked like it might be okay based on the reviews.  Boy, what a mistake.  
+We made a reservation through Expedia for a non-smoking room with two queen beds.  Expedia listed the room as non-refundable.  
+We called the hotel for the free shuttle.  That ride should have been our first clue.   The driver drove way too fast, hitting 70 MPH+ in 45 MPH zones.  We arrived at the hotel in one piece, thankfully.  We checked in and got our room key.  We went to the room and found that the key card would turn green, but we could not open the door -- the door handle was broken and was hanging limply.  I walked back to the front desk and explained the situation.  The desk employee seemed surprised.  He walked  back with me and was able to open the room by using his key.  He said that this was he last available room.  Of course, that meant we were unable to leave the room or we would not be able to get back in.  When he opened the door, we were about knocked over by the smell of cigarette smoke.  There were ashtrays in the room.  Obviously, not a non-smoking room. There was a single King size bed in the...My wife and I were traveling. Our flight into Houston was late and we missed our connecting flight.  We had to find a last-minute hotel to stay the night. This hotel looked like it might be okay based on the reviews.  Boy, what a mistake.  We made a reservation through Expedia for a non-smoking room with two queen beds.  Expedia listed the room as non-refundable.  We called the hotel for the free shuttle.  That ride should have been our first clue.   The driver drove way too fast, hitting 70 MPH+ in 45 MPH zones.  We arrived at the hotel in one piece, thankfully.  We checked in and got our room key.  We went to the room and found that the key card would turn green, but we could not open the door -- the door handle was broken and was hanging limply.  I walked back to the front desk and explained the situation.  The desk employee seemed surprised.  He walked  back with me and was able to open the room by using his key.  He said that this was he last available room.  Of course, that meant we were unable to leave the room or we would not be able to get back in.  When he opened the door, we were about knocked over by the smell of cigarette smoke.  There were ashtrays in the room.  Obviously, not a non-smoking room. There was a single King size bed in the room -- where were the two queen beds I reserved and received confirmation for?  Where was the non-smoking room?The A/C - Heater unit was unplugged.  I plugged it in, and tried to work the unit.  The temperature control knob was missing.  I fiddled with the setting knob and managed to get the unit working, but that lasted only a few minutes before the unit died. I called the front desk and explained the situation, he said he would take care of it. No one ever showed up, and we froze all night.  The electrical outlets in the room were so worn that when we plugged in our cell phone chargers, they fell back out.  We had to brace them to keep them from falling out.  The bed sheets had ink and other stains.  The pillows were worn out and uncomfortable.  The bedding smelled of smoke.  The mattress was barely passable as a place to try to sleep.The walls and ceiling were covered with smears, smudges, and grime.  The bathroom wall had writing and graffiti on the wall. The towels were thin and scratchy. The bathroom light fixture was dirty and missing the cover.  The toilet tank cover was broken.  There was something smudged on the front of the toilet bowl.  My wife and I decided that we would have been happier staying at the airport and trying to sleep in the terminal.  This was the worst hotel stay we have ever experienced. We have crossed Econo Lodge off our list, permanently.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r190991482-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>190991482</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>Terrible Experience</t>
+  </si>
+  <si>
+    <t>I booked the room online with an employee rate through choicehotels.com  for $25/night.  When my husband &amp; I arrived, the owner was rude &amp; told me that he would not honor the rate and charged me $39.night.  We took the room which was ok, the beds were not Choice Hotel approved beds, the shampoo was a sample pack, the bathroom towels were nasty, and the laundry room had broken equipment.  I called Choice Hotels and complained and was told by them that he had to honor the rate I was quoted which he finally did.  I made the reservation for 4 nights, but only stayed for one because if his attitude.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I booked the room online with an employee rate through choicehotels.com  for $25/night.  When my husband &amp; I arrived, the owner was rude &amp; told me that he would not honor the rate and charged me $39.night.  We took the room which was ok, the beds were not Choice Hotel approved beds, the shampoo was a sample pack, the bathroom towels were nasty, and the laundry room had broken equipment.  I called Choice Hotels and complained and was told by them that he had to honor the rate I was quoted which he finally did.  I made the reservation for 4 nights, but only stayed for one because if his attitude.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r181512982-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>181512982</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>Nice Choice for IAH Overnight! Quick airport shuttle!</t>
+  </si>
+  <si>
+    <t>This is really a great Choice for IAH overnights. I say Choice, as in you can earn Choice Privilege points! Quick airport shuttle, easy to use TV, high shower head (I'm 6'3"), outdoor pool, reasonable walking distance to area restaurants and a full supermarket. Marc (the General Manager) really knows what he is doing. Housekeeping is great. Like Anthony (Travel Channel Hotel Impossible) I run my finger on top of pictures, looking for dust. There is none in this Econo. Free breakfast with waffles. This is a limited, economy scale hotel. But they get five stars all around for what it is. For the cost, it exceeds expectations. I've stayed in Crowne Plaza properties that only wish they could be this great. I look forward to my return.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>This is really a great Choice for IAH overnights. I say Choice, as in you can earn Choice Privilege points! Quick airport shuttle, easy to use TV, high shower head (I'm 6'3"), outdoor pool, reasonable walking distance to area restaurants and a full supermarket. Marc (the General Manager) really knows what he is doing. Housekeeping is great. Like Anthony (Travel Channel Hotel Impossible) I run my finger on top of pictures, looking for dust. There is none in this Econo. Free breakfast with waffles. This is a limited, economy scale hotel. But they get five stars all around for what it is. For the cost, it exceeds expectations. I've stayed in Crowne Plaza properties that only wish they could be this great. I look forward to my return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r160895495-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>160895495</t>
+  </si>
+  <si>
+    <t>05/16/2013</t>
+  </si>
+  <si>
+    <t>Very dissatified with Choice Hotel</t>
+  </si>
+  <si>
+    <t>We arrived late and was given room 217 instead of room 123. The problem is that we reserved a non smoking room. Room 217 is a smoking room and I am severely allergic to smoking. After checking in another hotel the next day, I can still smell the smoke The room's security latch was broken and we did not feel safe. One of the light bulb is missing from the lamp. The towels had yellow stained marks on them the bedspread had stained and so did the pillow cases. We slept six hours and had to leave because it was disgusting. We grabbed some breakfast before we left and found out the the waffle machine was not working. Why not remove it if it was not working? The coffee was bad as well. We had been on the road for a few days and a few cities and this was the absolutely worst experience we had even with all the years before added together. I mentioned to Ron who checked us in and checked us out and he simply said that he was out of room. I will not book any Choice Hotel after this trip. I e-mailed Choice Hotel on 5/9/13 and got a response that they would get back to me in 72 hours. One week has passed and I still have not heard from them. Buyer beware when you book this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>We arrived late and was given room 217 instead of room 123. The problem is that we reserved a non smoking room. Room 217 is a smoking room and I am severely allergic to smoking. After checking in another hotel the next day, I can still smell the smoke The room's security latch was broken and we did not feel safe. One of the light bulb is missing from the lamp. The towels had yellow stained marks on them the bedspread had stained and so did the pillow cases. We slept six hours and had to leave because it was disgusting. We grabbed some breakfast before we left and found out the the waffle machine was not working. Why not remove it if it was not working? The coffee was bad as well. We had been on the road for a few days and a few cities and this was the absolutely worst experience we had even with all the years before added together. I mentioned to Ron who checked us in and checked us out and he simply said that he was out of room. I will not book any Choice Hotel after this trip. I e-mailed Choice Hotel on 5/9/13 and got a response that they would get back to me in 72 hours. One week has passed and I still have not heard from them. Buyer beware when you book this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r134297071-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>134297071</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Awful all around</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel last night after many flights out of Houston's Intercontinental Airport were cancelled due to weather.  It was 10:00pm and my two kids, my husband, and I were exhausted after a full day of waiting on standby in the airport.  After learning that we couldn't get a flight out till early the next morning, we called several nearby hotels with airport shuttles, but found all of them were booked solid...except Econolodge.  And now I understand why.
+While I had rather low expectations of the place (and I am not especially finicky about hotels), this place was awful.  The A/C did not cool (just blew air) and the temperature adjustment knob was completely missing from the unit.  The room's landline phone was partially dismantled.  The TV remote would continuously flip channels as long as it was pointed in the general direction of the TV, whether you were pressing any buttons or not.  We had to remove the batteries to keep it from flipping channels.  The bathroom door would not fully close.  There was an ironing board, but no iron.  The sheets were light green (always concerns me when hotel sheets aren't white) and the bottom sheet on both double beds had no elastic at all, so the sheet wouldn't stay situated on the mattresses properly.  The towels had some stains.  Carpet was old and smelly.  There were noticeable crumbs on top of the refrigerator.  The bar latch at...Stayed at this hotel last night after many flights out of Houston's Intercontinental Airport were cancelled due to weather.  It was 10:00pm and my two kids, my husband, and I were exhausted after a full day of waiting on standby in the airport.  After learning that we couldn't get a flight out till early the next morning, we called several nearby hotels with airport shuttles, but found all of them were booked solid...except Econolodge.  And now I understand why.While I had rather low expectations of the place (and I am not especially finicky about hotels), this place was awful.  The A/C did not cool (just blew air) and the temperature adjustment knob was completely missing from the unit.  The room's landline phone was partially dismantled.  The TV remote would continuously flip channels as long as it was pointed in the general direction of the TV, whether you were pressing any buttons or not.  We had to remove the batteries to keep it from flipping channels.  The bathroom door would not fully close.  There was an ironing board, but no iron.  The sheets were light green (always concerns me when hotel sheets aren't white) and the bottom sheet on both double beds had no elastic at all, so the sheet wouldn't stay situated on the mattresses properly.  The towels had some stains.  Carpet was old and smelly.  There were noticeable crumbs on top of the refrigerator.  The bar latch at the top of the door was broken.  We had our room key programmed twice, but it would not work in the door (and we were careful not to demagnitize it).  A hotel staff member had to let us in our room with a master key.  The only halfway good thing I can say is that the bed was more comfortable than I expected, given all the other problems, but quite frankly, I couldn't help wondering about its cleanliness after all the other failures I noted.  I paid $68 for the room--a bargain in the world of airport hotels--but I didn't get what I paid for!  I don't need fancy, just clean and functional.Next time, we'll sleep in the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel last night after many flights out of Houston's Intercontinental Airport were cancelled due to weather.  It was 10:00pm and my two kids, my husband, and I were exhausted after a full day of waiting on standby in the airport.  After learning that we couldn't get a flight out till early the next morning, we called several nearby hotels with airport shuttles, but found all of them were booked solid...except Econolodge.  And now I understand why.
+While I had rather low expectations of the place (and I am not especially finicky about hotels), this place was awful.  The A/C did not cool (just blew air) and the temperature adjustment knob was completely missing from the unit.  The room's landline phone was partially dismantled.  The TV remote would continuously flip channels as long as it was pointed in the general direction of the TV, whether you were pressing any buttons or not.  We had to remove the batteries to keep it from flipping channels.  The bathroom door would not fully close.  There was an ironing board, but no iron.  The sheets were light green (always concerns me when hotel sheets aren't white) and the bottom sheet on both double beds had no elastic at all, so the sheet wouldn't stay situated on the mattresses properly.  The towels had some stains.  Carpet was old and smelly.  There were noticeable crumbs on top of the refrigerator.  The bar latch at...Stayed at this hotel last night after many flights out of Houston's Intercontinental Airport were cancelled due to weather.  It was 10:00pm and my two kids, my husband, and I were exhausted after a full day of waiting on standby in the airport.  After learning that we couldn't get a flight out till early the next morning, we called several nearby hotels with airport shuttles, but found all of them were booked solid...except Econolodge.  And now I understand why.While I had rather low expectations of the place (and I am not especially finicky about hotels), this place was awful.  The A/C did not cool (just blew air) and the temperature adjustment knob was completely missing from the unit.  The room's landline phone was partially dismantled.  The TV remote would continuously flip channels as long as it was pointed in the general direction of the TV, whether you were pressing any buttons or not.  We had to remove the batteries to keep it from flipping channels.  The bathroom door would not fully close.  There was an ironing board, but no iron.  The sheets were light green (always concerns me when hotel sheets aren't white) and the bottom sheet on both double beds had no elastic at all, so the sheet wouldn't stay situated on the mattresses properly.  The towels had some stains.  Carpet was old and smelly.  There were noticeable crumbs on top of the refrigerator.  The bar latch at the top of the door was broken.  We had our room key programmed twice, but it would not work in the door (and we were careful not to demagnitize it).  A hotel staff member had to let us in our room with a master key.  The only halfway good thing I can say is that the bed was more comfortable than I expected, given all the other problems, but quite frankly, I couldn't help wondering about its cleanliness after all the other failures I noted.  I paid $68 for the room--a bargain in the world of airport hotels--but I didn't get what I paid for!  I don't need fancy, just clean and functional.Next time, we'll sleep in the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r64625951-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>64625951</t>
+  </si>
+  <si>
+    <t>05/18/2010</t>
+  </si>
+  <si>
+    <t>Not bad for an Econo Lodge</t>
+  </si>
+  <si>
+    <t>My room was large and fairly nice with  fridge, microwave and sofa.  The bed was fine.   The bathroom was OK, although the towels were small and thin.  Several channels on the TV didn't work.  One weird thing is that I didn't seem to have any cold water -- both the hot and cold taps gave warm water.  In fact, my shower on its coldest setting was almost too warm for me.  My room was next to the laundry, maybe that had something to do with it.  The staff were helpful, and ran a van shuttle to and from the airport (IAH), about a 10-15 min. trip.  You get the van where the taxis drop off, not where all the other hotel shuttles drop off.  The road outside the hotel is very busy and noisy, but my room was quiet as I ran the A/C all night.  Our best choice for supper was an IHOP Restaurant just up the road beside the off-ramp.  There is a shopping centre with a Kroger's next door if you need supplies.  The breakfast looked pretty bleak, and we left too early to try it anyway.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>My room was large and fairly nice with  fridge, microwave and sofa.  The bed was fine.   The bathroom was OK, although the towels were small and thin.  Several channels on the TV didn't work.  One weird thing is that I didn't seem to have any cold water -- both the hot and cold taps gave warm water.  In fact, my shower on its coldest setting was almost too warm for me.  My room was next to the laundry, maybe that had something to do with it.  The staff were helpful, and ran a van shuttle to and from the airport (IAH), about a 10-15 min. trip.  You get the van where the taxis drop off, not where all the other hotel shuttles drop off.  The road outside the hotel is very busy and noisy, but my room was quiet as I ran the A/C all night.  Our best choice for supper was an IHOP Restaurant just up the road beside the off-ramp.  There is a shopping centre with a Kroger's next door if you need supplies.  The breakfast looked pretty bleak, and we left too early to try it anyway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r31423810-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>31423810</t>
+  </si>
+  <si>
+    <t>06/02/2009</t>
+  </si>
+  <si>
+    <t>"Wonderful Stay"</t>
+  </si>
+  <si>
+    <t>We stayed here after a long transatlantic flight, when we arrived at the airport we phoned as requested, transport picked us up within 15 mins, on arrival at the hotel we we shown to our room a beautiful and clean spa king suite. The pool was open and was  sparkling clean it was a joy to swim in, hotel staff were friendly and always had a smile for us. We had to ask re location of resturants etc as we did not know the area and we were directed to several types of excerlent restaurants which filled our hunger needs. There was a hugh Mall a two minuite drive (you can walk if needed) and a good varitey of shopping outlets, We would stay here at any time and would reccommend it to anyone, in fact we stayed the last night before flying home to Great Britain after travelling for 16 days and was far the best hotel on our journey.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>We stayed here after a long transatlantic flight, when we arrived at the airport we phoned as requested, transport picked us up within 15 mins, on arrival at the hotel we we shown to our room a beautiful and clean spa king suite. The pool was open and was  sparkling clean it was a joy to swim in, hotel staff were friendly and always had a smile for us. We had to ask re location of resturants etc as we did not know the area and we were directed to several types of excerlent restaurants which filled our hunger needs. There was a hugh Mall a two minuite drive (you can walk if needed) and a good varitey of shopping outlets, We would stay here at any time and would reccommend it to anyone, in fact we stayed the last night before flying home to Great Britain after travelling for 16 days and was far the best hotel on our journey.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r28520006-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>28520006</t>
+  </si>
+  <si>
+    <t>04/21/2009</t>
+  </si>
+  <si>
+    <t>Better Than Expected</t>
+  </si>
+  <si>
+    <t>My husband needed to be hospitalized while just before our return flight home.  This hotel was about 1/2 mile from the hospital.  I spent one night here using Choice Reward Points.  My room was slightly worn - chipped mirror, scratched furniture, worn tiles.  The room was very clean but they had used a strong floral air freshener that actually gave me a headache    I was in a King Bed Suite that included a sofa and micro/fridge.  They advertised free wifi, but I didn't try it.  Breakfast was very basic - cereal, pastries, muffins, and beverages.  The lobby and the grounds were attractive and well kept.  It was in a nice neighborhood with a good selection of shopping and restaurants within blocks of the hotel.  If it had not been for the air freshener (I am very bothered by odors)  I would definitely have paid to stay in my room for my remaining night in the Houston Area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>My husband needed to be hospitalized while just before our return flight home.  This hotel was about 1/2 mile from the hospital.  I spent one night here using Choice Reward Points.  My room was slightly worn - chipped mirror, scratched furniture, worn tiles.  The room was very clean but they had used a strong floral air freshener that actually gave me a headache    I was in a King Bed Suite that included a sofa and micro/fridge.  They advertised free wifi, but I didn't try it.  Breakfast was very basic - cereal, pastries, muffins, and beverages.  The lobby and the grounds were attractive and well kept.  It was in a nice neighborhood with a good selection of shopping and restaurants within blocks of the hotel.  If it had not been for the air freshener (I am very bothered by odors)  I would definitely have paid to stay in my room for my remaining night in the Houston Area.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1258,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1290,2295 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>177</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s">
+        <v>189</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>190</v>
+      </c>
+      <c r="O25" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>225</v>
+      </c>
+      <c r="O30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" t="s">
+        <v>235</v>
+      </c>
+      <c r="L31" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>244</v>
+      </c>
+      <c r="O32" t="s">
+        <v>177</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>251</v>
+      </c>
+      <c r="O33" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>254</v>
+      </c>
+      <c r="J34" t="s">
+        <v>255</v>
+      </c>
+      <c r="K34" t="s">
+        <v>256</v>
+      </c>
+      <c r="L34" t="s">
+        <v>257</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>258</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>261</v>
+      </c>
+      <c r="J35" t="s">
+        <v>262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>263</v>
+      </c>
+      <c r="L35" t="s">
+        <v>264</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>265</v>
+      </c>
+      <c r="O35" t="s">
+        <v>153</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>267</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L36" t="s">
+        <v>271</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>272</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>274</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>275</v>
+      </c>
+      <c r="J37" t="s">
+        <v>276</v>
+      </c>
+      <c r="K37" t="s">
+        <v>277</v>
+      </c>
+      <c r="L37" t="s">
+        <v>278</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>279</v>
+      </c>
+      <c r="O37" t="s">
+        <v>177</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_530.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_530.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="439">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r608250428-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>223416</t>
+  </si>
+  <si>
+    <t>608250428</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Above and beyond excellent customer service</t>
+  </si>
+  <si>
+    <t>I want to take the time to let you all know about the experience that o had on tonight at this hotel..Tonight I called and reported a woman yelling for help. The call was made to both 911 and the front desk.. Not only did they respond very quickly to my call but the entire staff came out to help... The front desk, the senior manager, and the owner all showed up. They QUICKLY provided the officers with the tools needed to get to the elderly lady... She had fallen and was all alone.. Not only did they show concern but they stayed until the elderly lady was taken to the hospital. I will suggest to anyone who is travelling to stay here... From day one, i have received nothing but excellent customer service... Rooms are very clean, housekeeping was nice, management was very helpful, beds were very clean..Again, over the top, excellent customer service...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I want to take the time to let you all know about the experience that o had on tonight at this hotel..Tonight I called and reported a woman yelling for help. The call was made to both 911 and the front desk.. Not only did they respond very quickly to my call but the entire staff came out to help... The front desk, the senior manager, and the owner all showed up. They QUICKLY provided the officers with the tools needed to get to the elderly lady... She had fallen and was all alone.. Not only did they show concern but they stayed until the elderly lady was taken to the hospital. I will suggest to anyone who is travelling to stay here... From day one, i have received nothing but excellent customer service... Rooms are very clean, housekeeping was nice, management was very helpful, beds were very clean..Again, over the top, excellent customer service...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r601271570-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>601271570</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Worst service in Houston</t>
+  </si>
+  <si>
+    <t>I have stayed for business in at least 10 hotels in the Houston airport area, and this one is by far the worst. Rude personnel,  bathroom not working, zero customer service...  airport shuttle in the shop, they entered my room without even knocking twice while i was trying to sleep, didn't even bother with the breakfast...</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r601095061-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>601095061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They lied about transportation </t>
+  </si>
+  <si>
+    <t>Won't be coming backCalled for the free shuttle from the ariport, they didn't have one... Brandon said it was on the shop that day but if i get an Uber they will pay for that. Once I got to the hotel they refused to pay for it and finally made a whole deal of me trying to get my money back. Dealt with Brandon and got the "its not hotel policy to refund transportation even though we said we will refund it" . It has that cheap motel feel to it with the room leading directly to the parking lot and street. Just avoid it, there are much better options around ... MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Won't be coming backCalled for the free shuttle from the ariport, they didn't have one... Brandon said it was on the shop that day but if i get an Uber they will pay for that. Once I got to the hotel they refused to pay for it and finally made a whole deal of me trying to get my money back. Dealt with Brandon and got the "its not hotel policy to refund transportation even though we said we will refund it" . It has that cheap motel feel to it with the room leading directly to the parking lot and street. Just avoid it, there are much better options around ... More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r565344641-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
-    <t>56010</t>
-  </si>
-  <si>
-    <t>223416</t>
-  </si>
-  <si>
     <t>565344641</t>
   </si>
   <si>
@@ -177,9 +240,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r565244982-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -225,6 +285,80 @@
     <t>Some times just for one night , parking and fly should be ok but if we chose a cheapest  and because has breakfast at 6:30 am ( What breakfast promised for 6:30am???).Strange people out side their rooms smoking, talking loud until late close to my door , very simple. very poor.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r548297488-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>548297488</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>SESS POOL</t>
+  </si>
+  <si>
+    <t>SESS POOL 
+Do not. Do not. Do not. 
+No stars!!!!!!!!!!!!!!!!!!!!!!!!!!!!!
+Sleep in your car before you stay here. 
+It is filthy. Everything. 
+- Walls 
+-towels
+-blankets 
+-pillows
+-sheets 
+-bath tub 
+-sink 
+It is all covered in stains. Brown stains mold and crust. It is 
+We arrived at the hotel later in the evening with an early flight the next morning to New York. We had no choice but to make it through the night. I have no idea how this place has any stars. It is bad people. Don't take kids here!!!! Do not bring children here. It is gross and dangerous.
+****some guy kept peering through the window and banged on it trying to get us to open up the door. He only went away when my father came to the window to tell him to go away. 
+***** women called all through the night soliciting. You can only guess why. 
+**** shuttle service. 
+IT NEVER CAME. 
+They do a deal to let you keep your car at the hotel why you are  out of town and drop and pick you up from the airport. After the worst hotel stay of our life we were at least relieved we didn't have to hustle our vehicle to a different location before our early flight to ny. Okay fine we have insurance on the vehicle. However, when we called the hotel to pick us up they told us 15-20 min. 
+We...SESS POOL Do not. Do not. Do not. No stars!!!!!!!!!!!!!!!!!!!!!!!!!!!!!Sleep in your car before you stay here. It is filthy. Everything. - Walls -towels-blankets -pillows-sheets -bath tub -sink It is all covered in stains. Brown stains mold and crust. It is We arrived at the hotel later in the evening with an early flight the next morning to New York. We had no choice but to make it through the night. I have no idea how this place has any stars. It is bad people. Don't take kids here!!!! Do not bring children here. It is gross and dangerous.****some guy kept peering through the window and banged on it trying to get us to open up the door. He only went away when my father came to the window to tell him to go away. ***** women called all through the night soliciting. You can only guess why. **** shuttle service. IT NEVER CAME. They do a deal to let you keep your car at the hotel why you are  out of town and drop and pick you up from the airport. After the worst hotel stay of our life we were at least relieved we didn't have to hustle our vehicle to a different location before our early flight to ny. Okay fine we have insurance on the vehicle. However, when we called the hotel to pick us up they told us 15-20 min. We wait. 45 min later we call to check. They say their bus has broken down and they are sending a 24hr cab service.  An hour and a half later we give up on them and order an uber.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>SESS POOL 
+Do not. Do not. Do not. 
+No stars!!!!!!!!!!!!!!!!!!!!!!!!!!!!!
+Sleep in your car before you stay here. 
+It is filthy. Everything. 
+- Walls 
+-towels
+-blankets 
+-pillows
+-sheets 
+-bath tub 
+-sink 
+It is all covered in stains. Brown stains mold and crust. It is 
+We arrived at the hotel later in the evening with an early flight the next morning to New York. We had no choice but to make it through the night. I have no idea how this place has any stars. It is bad people. Don't take kids here!!!! Do not bring children here. It is gross and dangerous.
+****some guy kept peering through the window and banged on it trying to get us to open up the door. He only went away when my father came to the window to tell him to go away. 
+***** women called all through the night soliciting. You can only guess why. 
+**** shuttle service. 
+IT NEVER CAME. 
+They do a deal to let you keep your car at the hotel why you are  out of town and drop and pick you up from the airport. After the worst hotel stay of our life we were at least relieved we didn't have to hustle our vehicle to a different location before our early flight to ny. Okay fine we have insurance on the vehicle. However, when we called the hotel to pick us up they told us 15-20 min. 
+We...SESS POOL Do not. Do not. Do not. No stars!!!!!!!!!!!!!!!!!!!!!!!!!!!!!Sleep in your car before you stay here. It is filthy. Everything. - Walls -towels-blankets -pillows-sheets -bath tub -sink It is all covered in stains. Brown stains mold and crust. It is We arrived at the hotel later in the evening with an early flight the next morning to New York. We had no choice but to make it through the night. I have no idea how this place has any stars. It is bad people. Don't take kids here!!!! Do not bring children here. It is gross and dangerous.****some guy kept peering through the window and banged on it trying to get us to open up the door. He only went away when my father came to the window to tell him to go away. ***** women called all through the night soliciting. You can only guess why. **** shuttle service. IT NEVER CAME. They do a deal to let you keep your car at the hotel why you are  out of town and drop and pick you up from the airport. After the worst hotel stay of our life we were at least relieved we didn't have to hustle our vehicle to a different location before our early flight to ny. Okay fine we have insurance on the vehicle. However, when we called the hotel to pick us up they told us 15-20 min. We wait. 45 min later we call to check. They say their bus has broken down and they are sending a 24hr cab service.  An hour and a half later we give up on them and order an uber.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r546644413-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>546644413</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>False Advertising</t>
+  </si>
+  <si>
+    <t>There was no shuttle to pick us up when we arrived. They lied and said it was a mechanical problem. We later found out the driver had a dinner engagement. The "breakfast" was pitiful. There was a shuttle in the morning to take us back to the airport and that's how we found out he was at a dinner. To add injury to insult, he said he would credit our card the taxi cost and call us. That NEVER happened either.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r541399039-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -243,9 +377,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>This was a last minute booking, and the staff was very pleasant and helpful.  They gave me good tips on local dining which were all very close by.  And as far as the room, it was nice, spacious and clean with everything I needed. The Wifi was fast and easy to connect to.And the price was extremely competitive!After leaving the Houston area I noticed I had left my Samsung Tablet in the room.  I contacted them and it hadn't turned up immediately.  Mark Patel the general manager located and contacted me later in the day via Facebook (I neglected to leave a contact number) with good news that they had found it.  It is on it's way to me now.Thanks again Mark for such outstanding service.  If I am in the area again I will be sure to book with you!More</t>
   </si>
   <si>
@@ -285,6 +416,48 @@
     <t>First and foremost The Red Roof Inn in Humble Tx has competitive and AFFORDABLE rates that are just too hard to beat. Secondly lets talk LOCATION, LOCATION, LOCATION. They are surrounded by various restaurants, grocery and retail shopping options. They are also about a block away from the interstate. Thirdly and most importantly to me is their CUSTOMER SERVICE. From the first initial call to book my reservation up until the moment I checked out, I received nothing but first class treatment. Mark the manager was super cool easy going and very knowledgeable about the area and always went the extra mile to insure that my experience was nothing but the best. As a matter of fact. When it was time for me to check out he even helped me find lodging in another city which was huge seeing as though I had been personally trying for hours with no success. By now it should be no surprise that I highly recommend The Red Roof Inn  in Humble Tx-One Happy CustomerMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r508223330-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>508223330</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Very Clean Property</t>
+  </si>
+  <si>
+    <t>We have stayed here 3 times in the last 6 weeks and have had a great experience each time.  We have booked through Parksleepfly as well as direct with the property.  The staff has been helpful and friendly. We have had several of the shuttle drivers both to IAH and back with no issue whatsoever.  Our room has been immaculate each time.  Many other properties could take lessons on how to clean.  We will make this our go to property any time that we will be flying from IAH.  Also the parking is secure enough that we have no qualms leaving our vehicle during our trips. The price can't be beat.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We have stayed here 3 times in the last 6 weeks and have had a great experience each time.  We have booked through Parksleepfly as well as direct with the property.  The staff has been helpful and friendly. We have had several of the shuttle drivers both to IAH and back with no issue whatsoever.  Our room has been immaculate each time.  Many other properties could take lessons on how to clean.  We will make this our go to property any time that we will be flying from IAH.  Also the parking is secure enough that we have no qualms leaving our vehicle during our trips. The price can't be beat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r505110410-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>505110410</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Wonderful staff clean rooms</t>
+  </si>
+  <si>
+    <t>I stayed for 3 nights and could not be any happier! The shuttle pick up from the airport was quick and the check-in process was fast and easy. The staff welcomed me with open arms, asked me how my day was going and that if I needed anything do not hesitate to ask.  They suggested a wide variety of restaurants and there is a mall in walking distance.  The rooms were spotless and very spacious.  Wifi is a must for me as I'm sure it is for most people and the speed was fast! I recommend anybody travelling from the airport or even just driving to stay here, all around great property! Thank you so much Red Roof Inn! MikeMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>I stayed for 3 nights and could not be any happier! The shuttle pick up from the airport was quick and the check-in process was fast and easy. The staff welcomed me with open arms, asked me how my day was going and that if I needed anything do not hesitate to ask.  They suggested a wide variety of restaurants and there is a mall in walking distance.  The rooms were spotless and very spacious.  Wifi is a must for me as I'm sure it is for most people and the speed was fast! I recommend anybody travelling from the airport or even just driving to stay here, all around great property! Thank you so much Red Roof Inn! MikeMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r496983493-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -339,6 +512,45 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r400462939-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>400462939</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Location is good</t>
+  </si>
+  <si>
+    <t>The hotel is transitioning in ownership/management and there are some growing pains - however we got what we needed and our car was in a good place for the week we were gone. The price is very hard to beat and we were dropped off right where we needed to be at the airport and called to be picked up and where picked up within about 25 minutes at the airport. There is construction going on in front of the hotel currently on the road and this contributes to difficulty figuring out that it is the right place as well as the fact that it has had a name change Continental Inn and Suites instead of Econo-lodge. Again what impressed me most was the ability to get off I-69 and drive into the hotel be able to sleep and leave the car there while we traveled and have it waiting when we come back for about $80.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>The hotel is transitioning in ownership/management and there are some growing pains - however we got what we needed and our car was in a good place for the week we were gone. The price is very hard to beat and we were dropped off right where we needed to be at the airport and called to be picked up and where picked up within about 25 minutes at the airport. There is construction going on in front of the hotel currently on the road and this contributes to difficulty figuring out that it is the right place as well as the fact that it has had a name change Continental Inn and Suites instead of Econo-lodge. Again what impressed me most was the ability to get off I-69 and drive into the hotel be able to sleep and leave the car there while we traveled and have it waiting when we come back for about $80.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r393325242-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>393325242</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>First off, although all the website material identifies this as an Econolodge, all the signage calls it the Economy Inns and Suites... so we drove past it several times not knowing it was where we had reservations.  We booked for both ends of a flight from Bush Airport and, unlike some other folks who have reviewed here, we had no trouble getting the shuttle to and from the airport... but they had no record of our reservation on our return (I had a printout), so we were lucky they had a vacancy.  The room was OK, but the towels are small and scratchy, and the coffee in the room consisted of one cup (total) for two people.  The air conditioner was ridiculously loud, but at least it worked. We couldn't get a receipt because the computer was down, but they promised to e-mail me one.  They didn't.  I've stayed in worse places, and the price is good, but it's worth another few bucks to stay someplace better run than this.MoreShow less</t>
+  </si>
+  <si>
+    <t>First off, although all the website material identifies this as an Econolodge, all the signage calls it the Economy Inns and Suites... so we drove past it several times not knowing it was where we had reservations.  We booked for both ends of a flight from Bush Airport and, unlike some other folks who have reviewed here, we had no trouble getting the shuttle to and from the airport... but they had no record of our reservation on our return (I had a printout), so we were lucky they had a vacancy.  The room was OK, but the towels are small and scratchy, and the coffee in the room consisted of one cup (total) for two people.  The air conditioner was ridiculously loud, but at least it worked. We couldn't get a receipt because the computer was down, but they promised to e-mail me one.  They didn't.  I've stayed in worse places, and the price is good, but it's worth another few bucks to stay someplace better run than this.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r375502601-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -399,6 +611,42 @@
     <t>Very pleasant stay!! Our flight was leaving at 5:15 am, and they were more than helpful making sure they were available for us to be shuttled at 3:00 am. They even gave us a wake up call at 2:30 am. Very comfortable beds and clean rooms! Everything looked updated and brand new A/C units were installed also! Very spacious for my family of four, and well worth the drive into Houston to get some much needed rest before a long day of travel ahead! Very accommodating for all of our needs, and hospitable towards us!  A+ for anyone with high regards to a clean hotel traveling on a budget! Great stay!!! I would book this place again!! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r346354714-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>346354714</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Very Pleasant!</t>
+  </si>
+  <si>
+    <t>After staying next door at another Choice Hotel,the Rodeway Inn,I walked over to check out this property.I met Mark Patel at reception and explained exactly what I was looking for:king bed,no smoking,top floor,quiet corner location;so,he offered to show me a room which turned out to perfectly located and recently refurbished.I stayed 4 nights and slept well,ate the continental breakfast in the morning which was coffee,orange or apple juice,blueberry muffins,toast and cereal,more than adequate.My overall experience was outstanding.Thank you Mark!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r300590908-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>300590908</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Rude staff and Dirty/ Unsafe Accommodations DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>I  booked this room through NHIGLOBAL by using a United Airlines Voucher. Econo Lodge Airport left me stranded curbside for an hour assuring me that the shuttle driver was on his way. I finally caught a cab and when I arrived to check in there were already several unsatisfied customers in line due to over bookings, double bookings, and unsanitary rooms. The staff is extremely rude and very unhelpful. It seemed to me that they would rather cater to the "room by the hour" customers than tired stranded travelers. DO YOURSELF A FAVOR AND DO NOT WASTE YOUR MONEY HERE!!!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r285302884-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -459,6 +707,50 @@
     <t>We booked this motel for a one night stay so we could be close to Chez Nous and not have to drive 2 hours home.  If I hadn't prepaid we would have trashed this idea!  The reception area was a nightmare - some sort of locked bullet proof glass?  We were given a TV remote at check in - I guess they must be a high theft item.  The lights didn't work in the first room we were given - we were moved (after much confusion) to a room that upon first sight was O.K.  However when we returned from dinner we discoverd that the bathroom door creaked when moved - annoying for middle of the night bathroom needs - The room smelled and appeared to be in the middle of some sort of construction - various paint colors on one wall - light fixtures not covered and the carpet was dirty.  Upon check out (we left as early as possible, not wanting to prolong the misery) it took 5 minutes for someone to answer the "bell" and they couldn't figure out how to print a receipt and asked me if I had paid cash....really?  Horrible experience!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r272866737-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>272866737</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Not as Advertised</t>
+  </si>
+  <si>
+    <t>Room was adequate for the low $$$, BUT, the driver didn't show up for shuttle, so we had to take taxi, which added to room expense. We did a park-sleep-fly, and some things were taken from our car while away. (The mngr. on duty was very concerned about this, &amp; took info on our stuff, to watch for!!) The mngr on duty had to pick us up, due to no driver.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r270273970-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>270273970</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Hot, humid rooms, shuttle to airport, no one answers the phone</t>
+  </si>
+  <si>
+    <t>Due to a flight cancellation, the airline send us to this hotel while we were rebooked for the next day. That night it was raining really bad and we tried to call the hotel to use the shuttle to pick us up. No one answered, the phone dial kept ringing busy. At the end, we had to go get the car from the Park and Ride and drive to the hotel.
+When we arrived the clerk was on the phone, just ask for my ID and give me the keys, never hanging up. He mentioned that the free breakfast started at 6. At least they received the reservation from the airline.
+The room we had it was quite big with 2 queen beds. There were also 2 small chairs and a table next to the bed. However, the room was hot and humid, you could feel the heat and vapor steaming inside from the rain. I imagine in the summer, the rooms must be an oven. We put the AC on, but it took a long time to cool off. The rooms are very dark, even with the lights on.
+The room also had a small TV, a mini fridge, and old looking microwave and a coffee maker.  The closet had no where to hang clothes, not even 1 hanger.
+The bathroom's faucet kept dripping all night event though we tried to tighten it up.The room and bathroom look reasonably...Due to a flight cancellation, the airline send us to this hotel while we were rebooked for the next day. That night it was raining really bad and we tried to call the hotel to use the shuttle to pick us up. No one answered, the phone dial kept ringing busy. At the end, we had to go get the car from the Park and Ride and drive to the hotel.When we arrived the clerk was on the phone, just ask for my ID and give me the keys, never hanging up. He mentioned that the free breakfast started at 6. At least they received the reservation from the airline.The room we had it was quite big with 2 queen beds. There were also 2 small chairs and a table next to the bed. However, the room was hot and humid, you could feel the heat and vapor steaming inside from the rain. I imagine in the summer, the rooms must be an oven. We put the AC on, but it took a long time to cool off. The rooms are very dark, even with the lights on.The room also had a small TV, a mini fridge, and old looking microwave and a coffee maker.  The closet had no where to hang clothes, not even 1 hanger.The bathroom's faucet kept dripping all night event though we tried to tighten it up.The room and bathroom look reasonably clean. The towels as someone mentioned are tough as sandpaper. Toiletries are kept at a minimum.When we left, I noticed the pool. It was completely drained and it looked dirty with leaves, branches and trash inside. And when we checked out, no one was there in the reception, I just left the keys on the counter.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Due to a flight cancellation, the airline send us to this hotel while we were rebooked for the next day. That night it was raining really bad and we tried to call the hotel to use the shuttle to pick us up. No one answered, the phone dial kept ringing busy. At the end, we had to go get the car from the Park and Ride and drive to the hotel.
+When we arrived the clerk was on the phone, just ask for my ID and give me the keys, never hanging up. He mentioned that the free breakfast started at 6. At least they received the reservation from the airline.
+The room we had it was quite big with 2 queen beds. There were also 2 small chairs and a table next to the bed. However, the room was hot and humid, you could feel the heat and vapor steaming inside from the rain. I imagine in the summer, the rooms must be an oven. We put the AC on, but it took a long time to cool off. The rooms are very dark, even with the lights on.
+The room also had a small TV, a mini fridge, and old looking microwave and a coffee maker.  The closet had no where to hang clothes, not even 1 hanger.
+The bathroom's faucet kept dripping all night event though we tried to tighten it up.The room and bathroom look reasonably...Due to a flight cancellation, the airline send us to this hotel while we were rebooked for the next day. That night it was raining really bad and we tried to call the hotel to use the shuttle to pick us up. No one answered, the phone dial kept ringing busy. At the end, we had to go get the car from the Park and Ride and drive to the hotel.When we arrived the clerk was on the phone, just ask for my ID and give me the keys, never hanging up. He mentioned that the free breakfast started at 6. At least they received the reservation from the airline.The room we had it was quite big with 2 queen beds. There were also 2 small chairs and a table next to the bed. However, the room was hot and humid, you could feel the heat and vapor steaming inside from the rain. I imagine in the summer, the rooms must be an oven. We put the AC on, but it took a long time to cool off. The rooms are very dark, even with the lights on.The room also had a small TV, a mini fridge, and old looking microwave and a coffee maker.  The closet had no where to hang clothes, not even 1 hanger.The bathroom's faucet kept dripping all night event though we tried to tighten it up.The room and bathroom look reasonably clean. The towels as someone mentioned are tough as sandpaper. Toiletries are kept at a minimum.When we left, I noticed the pool. It was completely drained and it looked dirty with leaves, branches and trash inside. And when we checked out, no one was there in the reception, I just left the keys on the counter.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r267407886-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -474,9 +766,6 @@
     <t>We stayed here just for one night, staff was very friendly and the price was fair. Not a 5-star motel, but the beds were good and the room was clean. Conveniently located near airport and restaurants.Will stay here again.</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -516,6 +805,45 @@
     <t>This was a stay in desperation.  This is the only way I would stay here again!  Towels like sandpaper.  Staff that didn't speak English!!  Bad when they don't understand the word "coffee"!!  When she finally made it ...it ran over and all over the floor.  Big mess.  Staff didn't know there were a dozen restaurants 2 blocks away.  We were told only choice was Burger King.  Glad to be leaving this hotel</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r254682998-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>254682998</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>TERRIBLE! DO NOT STAY HERE!!</t>
+  </si>
+  <si>
+    <t>My husband, myself and our two children travel while he works. We've stayed at MANY economy hotels, along with some nicer ones. We know what the service should be like, we know what clean looks like.. We LIVE in hotels. This place was ABSOLUTELY DISGUSTING!! Our first night we got a nonsmoking room and when we opened the door the cigarette smell was SOOO strong. Also, they tried to cover it up with PERFUME, which my husband was allergic to and it was so bad it gave me a migraine. The sheets were stained, cigarette burn holes everywhere! The mini fridge and microwave were dirty. The housekeepers wouldn't come in and clean like they were supposed to.. They halfway did their job. My children and I made homemade valentines to send to family, and the day before we sent them the maid came in and sat a tiny stack of stained, scratchy towels on TOP OF THEM on the table next to the door!! They were so lazy that they couldn't even put them on the bathroom shelf!! The washer and dryer were GROSS!!! Never been cleaned! My children's feet were black from the carpet in the room!!! The lady manager there was AWFUL, she had the worst attitude!! No quarters for the washer/dryer.. The people there were not the nicest. Drunks walking around everywhere, people smoking weed outside, drug dealer was living next door.. I could hear their conversations...My husband, myself and our two children travel while he works. We've stayed at MANY economy hotels, along with some nicer ones. We know what the service should be like, we know what clean looks like.. We LIVE in hotels. This place was ABSOLUTELY DISGUSTING!! Our first night we got a nonsmoking room and when we opened the door the cigarette smell was SOOO strong. Also, they tried to cover it up with PERFUME, which my husband was allergic to and it was so bad it gave me a migraine. The sheets were stained, cigarette burn holes everywhere! The mini fridge and microwave were dirty. The housekeepers wouldn't come in and clean like they were supposed to.. They halfway did their job. My children and I made homemade valentines to send to family, and the day before we sent them the maid came in and sat a tiny stack of stained, scratchy towels on TOP OF THEM on the table next to the door!! They were so lazy that they couldn't even put them on the bathroom shelf!! The washer and dryer were GROSS!!! Never been cleaned! My children's feet were black from the carpet in the room!!! The lady manager there was AWFUL, she had the worst attitude!! No quarters for the washer/dryer.. The people there were not the nicest. Drunks walking around everywhere, people smoking weed outside, drug dealer was living next door.. I could hear their conversations in the middle of the night they were talking so loud!! Police kept showing up!! The beds were AWFUL.. I woke up 2-3 times a night, the box spring was coming off of the bed and sagging really bad.. I could go on and on! We've stayed in a TON of hotels and this was by far the WORST experience!! If you want a decent place to stay in humble go to the EXECUTIVE INN AND SUITES! it's very clean and the people who run it are SO nice!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband, myself and our two children travel while he works. We've stayed at MANY economy hotels, along with some nicer ones. We know what the service should be like, we know what clean looks like.. We LIVE in hotels. This place was ABSOLUTELY DISGUSTING!! Our first night we got a nonsmoking room and when we opened the door the cigarette smell was SOOO strong. Also, they tried to cover it up with PERFUME, which my husband was allergic to and it was so bad it gave me a migraine. The sheets were stained, cigarette burn holes everywhere! The mini fridge and microwave were dirty. The housekeepers wouldn't come in and clean like they were supposed to.. They halfway did their job. My children and I made homemade valentines to send to family, and the day before we sent them the maid came in and sat a tiny stack of stained, scratchy towels on TOP OF THEM on the table next to the door!! They were so lazy that they couldn't even put them on the bathroom shelf!! The washer and dryer were GROSS!!! Never been cleaned! My children's feet were black from the carpet in the room!!! The lady manager there was AWFUL, she had the worst attitude!! No quarters for the washer/dryer.. The people there were not the nicest. Drunks walking around everywhere, people smoking weed outside, drug dealer was living next door.. I could hear their conversations...My husband, myself and our two children travel while he works. We've stayed at MANY economy hotels, along with some nicer ones. We know what the service should be like, we know what clean looks like.. We LIVE in hotels. This place was ABSOLUTELY DISGUSTING!! Our first night we got a nonsmoking room and when we opened the door the cigarette smell was SOOO strong. Also, they tried to cover it up with PERFUME, which my husband was allergic to and it was so bad it gave me a migraine. The sheets were stained, cigarette burn holes everywhere! The mini fridge and microwave were dirty. The housekeepers wouldn't come in and clean like they were supposed to.. They halfway did their job. My children and I made homemade valentines to send to family, and the day before we sent them the maid came in and sat a tiny stack of stained, scratchy towels on TOP OF THEM on the table next to the door!! They were so lazy that they couldn't even put them on the bathroom shelf!! The washer and dryer were GROSS!!! Never been cleaned! My children's feet were black from the carpet in the room!!! The lady manager there was AWFUL, she had the worst attitude!! No quarters for the washer/dryer.. The people there were not the nicest. Drunks walking around everywhere, people smoking weed outside, drug dealer was living next door.. I could hear their conversations in the middle of the night they were talking so loud!! Police kept showing up!! The beds were AWFUL.. I woke up 2-3 times a night, the box spring was coming off of the bed and sagging really bad.. I could go on and on! We've stayed in a TON of hotels and this was by far the WORST experience!! If you want a decent place to stay in humble go to the EXECUTIVE INN AND SUITES! it's very clean and the people who run it are SO nice!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r247579219-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>247579219</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Avoid At All Costs. Even If United Foots The Bill</t>
+  </si>
+  <si>
+    <t>My flight was delayed and we were forced to spend the night in Houston. This place should be CONDEMNED by the state of Houston, the local health dept. and United Airlines should be ashamed to send their passengers here. It's a page out  of the Ho Stroll/skid row book.   At check  in, everything was passed thru a plexiglass window. They give the guests a tv remote through this window that must be returned at check out.  The room phones did not work in 2 of the rooms I saw. Thank God for their wifi and my cell phone. The clerk could not provide a # for Yellow Cab. We were on our own for that.  They have a shuttle but said service was suspended for the next morning.   One passenger was given a room still being painted with 5 gal drums of paint inside. My room 108 had a huge hole in the wall, carpets were filthy. Not nasty but filthy, cigarette burns on bedspread. No way would I have undressed, got under the covers or even showered in this dump. It's about 15 mins from George Bush airport  but in a remote, industrial area.  The entire experience was creepy and scary.  Shame on you Econo Lodge And double shame on you United Airlines.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>My flight was delayed and we were forced to spend the night in Houston. This place should be CONDEMNED by the state of Houston, the local health dept. and United Airlines should be ashamed to send their passengers here. It's a page out  of the Ho Stroll/skid row book.   At check  in, everything was passed thru a plexiglass window. They give the guests a tv remote through this window that must be returned at check out.  The room phones did not work in 2 of the rooms I saw. Thank God for their wifi and my cell phone. The clerk could not provide a # for Yellow Cab. We were on our own for that.  They have a shuttle but said service was suspended for the next morning.   One passenger was given a room still being painted with 5 gal drums of paint inside. My room 108 had a huge hole in the wall, carpets were filthy. Not nasty but filthy, cigarette burns on bedspread. No way would I have undressed, got under the covers or even showered in this dump. It's about 15 mins from George Bush airport  but in a remote, industrial area.  The entire experience was creepy and scary.  Shame on you Econo Lodge And double shame on you United Airlines.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r246183453-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -549,9 +877,6 @@
     <t>This hotel will never earn more than two stars but it offers a good nights sleep at a very low price. The rooms are disappointing, the neighbors a little scary and the area is not the best near the airport. However, for the money, you will have a hard time beating this place. The breakfast is adequate and I did sleep well despite the maintenance crews who insist upon using the outside area as their place to get together and discuss their daily adventures over a few beers.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r243567791-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -573,6 +898,39 @@
     <t>just run a away for this place ! i stay here becaause my flight was cancelled. wait 1h30 for the shuttle, once arrive a get the room i need to ask 3 time to reception desk to open the door, the keys are not working. The room was oldy bad taste of decoration and furniture. No information about the breakfast hours, internet is very bad. They can't give you any ground transport informations. I ask to deposit me to airport and then to pick me up; the chinese lady ( shey say is employee but she is the owner) answer ; i bring you to airport but then you are not anymore guest so you take a taxi. Is far away for airport and any ground transportation.So just run away and find a better place !More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r236772378-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>236772378</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Great stay - Great Management</t>
+  </si>
+  <si>
+    <t>The rooms are clean and spacious and the location is convenient to the airport, shopping, and dining making it a good choice for a short or long stay.  Great place for an extended stay as well!Great value for the money!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r235820543-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>235820543</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>The Pits</t>
+  </si>
+  <si>
+    <t>This is the worst ever.  Is there a - (minus) rating?  I booked a room on line while at the airport. Waited an hour for the shuttle.  Got to the hotel at 11:00 pm only to find out that they had over booked.  No room available  The staff was very rude, and just ignored me when I tried to talk to them.  They would pick up a piece of paper and pretend to be studying it.  Had to take the shuttle back to the airport.  Finally found other accomodations early in the am.  I would advise anyone to steer clear of ths crummy hotel.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r233799286-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -588,9 +946,6 @@
     <t>The hotel was inexpensive, which means that the rooms were not great, but not at all bad for the price.  It is close to the best TexMex restaurant in America (Papasito's), and only a short shuttle ride to the airport. The staff were friendly and helpful.</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r232389389-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -621,6 +976,42 @@
     <t>I was met at the airport by the owner, he was gracious and friendly.  My room was large, very clean, good internet.  I loved the location, it was near restaurants, shopping.  The pool was inviting.  I have stayed at many hotels at the Houston airport and I would choose this one again.  The other hotels near the airport do not offer many choices for meals or shopping without getting an expensive taxi ride.  I own a hotel and found this one definitely up to me standards.  I know they are working to upgrade the place.  This will be my new go to hotel.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r221238915-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>221238915</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>sorry excuse for a hotel!!</t>
+  </si>
+  <si>
+    <t>Arrive at hotel 11:30 pm after canceled flight as a matter of fact United gave us a discount rate for the hotel. Any way given a room that was well over 100 degrees when we walk in, the door to room would not lock and the dead bolt was broken off. Given a new room with exposed electrical wires and the shower water either comes out cold or hot, with no combination of the two for warm. Hand towels for bath towels. Asked for extra pillows and were told their were none available.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r220545996-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>220545996</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Not Clean and Smelly</t>
+  </si>
+  <si>
+    <t>I understand that a economy hotel is not fancy still you should at least get a clean room , it was like a nightmare hotel...poor in everything...smelly, dirty and what is worse it was suggested and booked by the service provided by united airlines for travelers that suffered flight interruption due it to weather problems...I should have wait a little bit more and get the IAH airport internet access and booked my hotel using internet. Shuttle to the airport is provided by the hotel in a very old van...</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r213700012-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -636,9 +1027,6 @@
     <t>I'm having the worst experience right now at this hotel.I called earlier tonight to ask about the shuttle service (the main reason for me booking it). The employee Rony said he could send someone to pick me up and I said that I was waiting for my bags and that could take a while. He said 'no problem, call when you're ready'. When I got the bags, about an hour later, I called again and he said he couldn't send someone to pick me up because it was too late - he didn't said that on the phone. So I had to get a taxi, which cost me almost $20 (with that + $80 for the room I could've gone to a much nicer hotel).When I got to the hotel, I pressed the buzzer 2 or 3 times because I didn't hear a sound and when Rony showed up he complained about me having pressed it more than one time. SO RUDE!!! He didn't even give us the Wifi password or said anything about the breakfast....  Horrible service.MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>I'm having the worst experience right now at this hotel.I called earlier tonight to ask about the shuttle service (the main reason for me booking it). The employee Rony said he could send someone to pick me up and I said that I was waiting for my bags and that could take a while. He said 'no problem, call when you're ready'. When I got the bags, about an hour later, I called again and he said he couldn't send someone to pick me up because it was too late - he didn't said that on the phone. So I had to get a taxi, which cost me almost $20 (with that + $80 for the room I could've gone to a much nicer hotel).When I got to the hotel, I pressed the buzzer 2 or 3 times because I didn't hear a sound and when Rony showed up he complained about me having pressed it more than one time. SO RUDE!!! He didn't even give us the Wifi password or said anything about the breakfast....  Horrible service.More</t>
   </si>
   <si>
@@ -676,6 +1064,54 @@
   </si>
   <si>
     <t>This place was terrible. I was put up here on a voucher from Delta. I was given room 210. The room was terrible. Upon opening the door a strong odor of smoke hit me. There were cigarette burns on the floor, the table, and the bed spread. There was no remote for the TV.. You have to go ask for one at the desk. The curtain was broke.. the knob on the a/c was broke.. the towels were stained (bad).. The micro wave smelled of burnt pizza and a dish was left in it because there was no turn table. The sink was missing the plug in it and it was full of hair. The couch had cigarette burns and there and there were stained on the ceiling.  I complain to Bennie... He said he could not give me another room.. He said that he could have someone remove the hair from the sink. I saw a couple with 2 children, who were also put there by Delta, went to take their 2 small kids to swim in the pool. They looked so cute and excited.. I walked over with them to the pool.. once inside the gate... The pool was green.  The mom said, "sorry guys no swimming in here." Back to the room they went.  Their room was not as bad and it was a non smoking room.. they did say that they were going to put some...This place was terrible. I was put up here on a voucher from Delta. I was given room 210. The room was terrible. Upon opening the door a strong odor of smoke hit me. There were cigarette burns on the floor, the table, and the bed spread. There was no remote for the TV.. You have to go ask for one at the desk. The curtain was broke.. the knob on the a/c was broke.. the towels were stained (bad).. The micro wave smelled of burnt pizza and a dish was left in it because there was no turn table. The sink was missing the plug in it and it was full of hair. The couch had cigarette burns and there and there were stained on the ceiling.  I complain to Bennie... He said he could not give me another room.. He said that he could have someone remove the hair from the sink. I saw a couple with 2 children, who were also put there by Delta, went to take their 2 small kids to swim in the pool. They looked so cute and excited.. I walked over with them to the pool.. once inside the gate... The pool was green.  The mom said, "sorry guys no swimming in here." Back to the room they went.  Their room was not as bad and it was a non smoking room.. they did say that they were going to put some blankets over the sheets for the kids. They were very nice people.. No food close to the area to walk to. I could not sleep there.  I asked them for my voucher back which he told me NO. I told them to just take me back to the airport.  They said it would be a bit.. making sure it was after 9:00pm so the Delta terminal was closed. I slept at the airport on the chairs... Way better than the room.  While there, 3 more people from the hotel showed up to stay at the airport too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r200741166-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>200741166</t>
+  </si>
+  <si>
+    <t>04/11/2014</t>
+  </si>
+  <si>
+    <t>Worst Motel Experience in My Life</t>
+  </si>
+  <si>
+    <t>I was booked here by Nationwide Hospitality Inc. for an interrupted business trip. The company Nationwide Hospitality was referred to me by United Airlines. The room was a disaster. It had an overwhelming smell of smoke that was overpowering and sickening. There were stains all over the carpet, marks in the wall, and cigarette marks on the toilet and furniture. I cannot believe this rubbish hotel is chosen for the United Airline's customers. On top of it, Nationwide "Hospitality" refused a refund. Never again will I use such a referral. After I complained to the front desk about the room, they refused to change my room. So I returned my key, and went outside to make arrangements for another hotel. Then, the front desk staff came out and started yelling at me that it was not "his fault" that the room was filthy, and he continued yelling at me and harassing me while I was waiting for a cab outside. I felt threatened  and walked out of their property boundaries. It was an unbelievably horrible experience while stranded during travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I was booked here by Nationwide Hospitality Inc. for an interrupted business trip. The company Nationwide Hospitality was referred to me by United Airlines. The room was a disaster. It had an overwhelming smell of smoke that was overpowering and sickening. There were stains all over the carpet, marks in the wall, and cigarette marks on the toilet and furniture. I cannot believe this rubbish hotel is chosen for the United Airline's customers. On top of it, Nationwide "Hospitality" refused a refund. Never again will I use such a referral. After I complained to the front desk about the room, they refused to change my room. So I returned my key, and went outside to make arrangements for another hotel. Then, the front desk staff came out and started yelling at me that it was not "his fault" that the room was filthy, and he continued yelling at me and harassing me while I was waiting for a cab outside. I felt threatened  and walked out of their property boundaries. It was an unbelievably horrible experience while stranded during travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r198849882-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>198849882</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>I really wanted to give this place a nice review...</t>
+  </si>
+  <si>
+    <t>I read the negatives and was hesitant to stay here but I was in a rush and I'm not as fussy (single male traveling alone). I was passing through Houston and needed to park my car for a week while I flew out of country.
+The room was acceptable for a cheaper motel. Actually I thought it was above average for an econo lodge but it was a bit pricy too. It was big and had a nice TV. Shower was good, AC worked, bed was acceptable. They used too much perfumed cleaning solution and I got a reaction from that.
+My biggest problem with the place however was the airport shuttle. I scheduled a 5am shuttle for a 7:15 international flight. At 4:50am they called my room to make sure I was awake and ready to go, which of course I was. I thought that was nice of them. I went down at 4:55. Nobody was there. At 5am I rang the bell and a man came out and said the driver will be right out. OK, fine. 5:05 nothing. 5:10 I look at the guy and stick my arms out. He goes in the back for a minute and says she'll be right out. I'm getting very antsy. At 5:15 she finally comes out. Wife of the owner. I'll call her Mrs. Singh, if you get my drift.
+I drove an airport shuttle for 4 years and I...I read the negatives and was hesitant to stay here but I was in a rush and I'm not as fussy (single male traveling alone). I was passing through Houston and needed to park my car for a week while I flew out of country.The room was acceptable for a cheaper motel. Actually I thought it was above average for an econo lodge but it was a bit pricy too. It was big and had a nice TV. Shower was good, AC worked, bed was acceptable. They used too much perfumed cleaning solution and I got a reaction from that.My biggest problem with the place however was the airport shuttle. I scheduled a 5am shuttle for a 7:15 international flight. At 4:50am they called my room to make sure I was awake and ready to go, which of course I was. I thought that was nice of them. I went down at 4:55. Nobody was there. At 5am I rang the bell and a man came out and said the driver will be right out. OK, fine. 5:05 nothing. 5:10 I look at the guy and stick my arms out. He goes in the back for a minute and says she'll be right out. I'm getting very antsy. At 5:15 she finally comes out. Wife of the owner. I'll call her Mrs. Singh, if you get my drift.I drove an airport shuttle for 4 years and I was NEVER late. Totally unacceptable. Especially for the first run of the day. She could have thrown her hair in a pony tail and put on a hat and gone back to sleep after she got 'home'. I made my flight without any issues but I wasn't happy, especially since they called me at 4:50.Then to make matters worse, on the ride home a week later, she was driving 70 mph in a 45 zone. A delivery truck pulled out in front of us (clearly their fault) but if she wasn't speeding she wouldn't have had to lock up the brakes and swerve to avoid it. Terrible driver.I wouldn't stay here again if it was free.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I read the negatives and was hesitant to stay here but I was in a rush and I'm not as fussy (single male traveling alone). I was passing through Houston and needed to park my car for a week while I flew out of country.
+The room was acceptable for a cheaper motel. Actually I thought it was above average for an econo lodge but it was a bit pricy too. It was big and had a nice TV. Shower was good, AC worked, bed was acceptable. They used too much perfumed cleaning solution and I got a reaction from that.
+My biggest problem with the place however was the airport shuttle. I scheduled a 5am shuttle for a 7:15 international flight. At 4:50am they called my room to make sure I was awake and ready to go, which of course I was. I thought that was nice of them. I went down at 4:55. Nobody was there. At 5am I rang the bell and a man came out and said the driver will be right out. OK, fine. 5:05 nothing. 5:10 I look at the guy and stick my arms out. He goes in the back for a minute and says she'll be right out. I'm getting very antsy. At 5:15 she finally comes out. Wife of the owner. I'll call her Mrs. Singh, if you get my drift.
+I drove an airport shuttle for 4 years and I...I read the negatives and was hesitant to stay here but I was in a rush and I'm not as fussy (single male traveling alone). I was passing through Houston and needed to park my car for a week while I flew out of country.The room was acceptable for a cheaper motel. Actually I thought it was above average for an econo lodge but it was a bit pricy too. It was big and had a nice TV. Shower was good, AC worked, bed was acceptable. They used too much perfumed cleaning solution and I got a reaction from that.My biggest problem with the place however was the airport shuttle. I scheduled a 5am shuttle for a 7:15 international flight. At 4:50am they called my room to make sure I was awake and ready to go, which of course I was. I thought that was nice of them. I went down at 4:55. Nobody was there. At 5am I rang the bell and a man came out and said the driver will be right out. OK, fine. 5:05 nothing. 5:10 I look at the guy and stick my arms out. He goes in the back for a minute and says she'll be right out. I'm getting very antsy. At 5:15 she finally comes out. Wife of the owner. I'll call her Mrs. Singh, if you get my drift.I drove an airport shuttle for 4 years and I was NEVER late. Totally unacceptable. Especially for the first run of the day. She could have thrown her hair in a pony tail and put on a hat and gone back to sleep after she got 'home'. I made my flight without any issues but I wasn't happy, especially since they called me at 4:50.Then to make matters worse, on the ride home a week later, she was driving 70 mph in a 45 zone. A delivery truck pulled out in front of us (clearly their fault) but if she wasn't speeding she wouldn't have had to lock up the brakes and swerve to avoid it. Terrible driver.I wouldn't stay here again if it was free.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r194529040-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
@@ -739,6 +1175,39 @@
     <t>I booked the room online with an employee rate through choicehotels.com  for $25/night.  When my husband &amp; I arrived, the owner was rude &amp; told me that he would not honor the rate and charged me $39.night.  We took the room which was ok, the beds were not Choice Hotel approved beds, the shampoo was a sample pack, the bathroom towels were nasty, and the laundry room had broken equipment.  I called Choice Hotels and complained and was told by them that he had to honor the rate I was quoted which he finally did.  I made the reservation for 4 nights, but only stayed for one because if his attitude.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r187588420-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>187588420</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>You pay for what you get</t>
+  </si>
+  <si>
+    <t>Choose Econlodge as it was close to shopping and restaurants. I had no great expectations.It was as advertised. Good value.Odd that their shuttle did not operate until after 6:00 pm in the evening.It was operating for my morning flight.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r185521079-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>185521079</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Transit Travel OK</t>
+  </si>
+  <si>
+    <t>If you need a basic, no frills, bit down-at-the heels but convenient airport hotel while in transit, this will work.  Do not expect any extras.  There are probably better choices.  I was thrilled they had a room. I had booked a hotel at the wrong Houston airport and many hotels near main airport were booked.  Staff was pleasant.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r181512982-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -804,6 +1273,45 @@
 While I had rather low expectations of the place (and I am not especially finicky about hotels), this place was awful.  The A/C did not cool (just blew air) and the temperature adjustment knob was completely missing from the unit.  The room's landline phone was partially dismantled.  The TV remote would continuously flip channels as long as it was pointed in the general direction of the TV, whether you were pressing any buttons or not.  We had to remove the batteries to keep it from flipping channels.  The bathroom door would not fully close.  There was an ironing board, but no iron.  The sheets were light green (always concerns me when hotel sheets aren't white) and the bottom sheet on both double beds had no elastic at all, so the sheet wouldn't stay situated on the mattresses properly.  The towels had some stains.  Carpet was old and smelly.  There were noticeable crumbs on top of the refrigerator.  The bar latch at...Stayed at this hotel last night after many flights out of Houston's Intercontinental Airport were cancelled due to weather.  It was 10:00pm and my two kids, my husband, and I were exhausted after a full day of waiting on standby in the airport.  After learning that we couldn't get a flight out till early the next morning, we called several nearby hotels with airport shuttles, but found all of them were booked solid...except Econolodge.  And now I understand why.While I had rather low expectations of the place (and I am not especially finicky about hotels), this place was awful.  The A/C did not cool (just blew air) and the temperature adjustment knob was completely missing from the unit.  The room's landline phone was partially dismantled.  The TV remote would continuously flip channels as long as it was pointed in the general direction of the TV, whether you were pressing any buttons or not.  We had to remove the batteries to keep it from flipping channels.  The bathroom door would not fully close.  There was an ironing board, but no iron.  The sheets were light green (always concerns me when hotel sheets aren't white) and the bottom sheet on both double beds had no elastic at all, so the sheet wouldn't stay situated on the mattresses properly.  The towels had some stains.  Carpet was old and smelly.  There were noticeable crumbs on top of the refrigerator.  The bar latch at the top of the door was broken.  We had our room key programmed twice, but it would not work in the door (and we were careful not to demagnitize it).  A hotel staff member had to let us in our room with a master key.  The only halfway good thing I can say is that the bed was more comfortable than I expected, given all the other problems, but quite frankly, I couldn't help wondering about its cleanliness after all the other failures I noted.  I paid $68 for the room--a bargain in the world of airport hotels--but I didn't get what I paid for!  I don't need fancy, just clean and functional.Next time, we'll sleep in the airport.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r125690969-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>125690969</t>
+  </si>
+  <si>
+    <t>03/06/2012</t>
+  </si>
+  <si>
+    <t>After A Long Plane Flight</t>
+  </si>
+  <si>
+    <t>After a long plane flight we decided to bunk in at the Econo Lodge on the first night of our Texas vacation.  This turned out to be a very good decision.  Very clean and spacious room with excellent water pressure in the shower.  Many airport motels are sub standard due to the fact that their guests are only there overnight and most likely will never be back.  This motel was a pleasant surprise and got us off to a great start for our family vacation.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r120866269-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>120866269</t>
+  </si>
+  <si>
+    <t>11/21/2011</t>
+  </si>
+  <si>
+    <t>Okay Hotel</t>
+  </si>
+  <si>
+    <t>Stay here for the price.  Got a great price, but the location is only okay and the hotel is two-star at best. My garmin did not put the hotel on the business road and directed me to a different road, but the staff at the front desk were courteous and helpful in giving me directions when I called.  I was given a room with a King bed as asked for, but there was an awkward placement of a jacuzzi tub in the room.  The bed was towards the front of the room and the entry area had the sofa and desk, but the television was mounted in the corner near the jacuzzi and we ended up moving the sofa into the large empty area near the jacuzzi in order to watch the television.  The towels were small and thin, the cleanliness adequate, and the continental breakfast weak.  The nearby airport had planes flying overhead, but that stopped around 10 pm and didn't resume until 6 am.The only good was finding the Brick House Tavern nearby at the next intersection.  Great spot to lounge around and enjoy yourself for a few hours watching television in a much more comfortable environment.  If you're looking for a cheap overnight stop, this is the place.  Otherwise, spend a bit more and stay at any of the other nearby hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Stay here for the price.  Got a great price, but the location is only okay and the hotel is two-star at best. My garmin did not put the hotel on the business road and directed me to a different road, but the staff at the front desk were courteous and helpful in giving me directions when I called.  I was given a room with a King bed as asked for, but there was an awkward placement of a jacuzzi tub in the room.  The bed was towards the front of the room and the entry area had the sofa and desk, but the television was mounted in the corner near the jacuzzi and we ended up moving the sofa into the large empty area near the jacuzzi in order to watch the television.  The towels were small and thin, the cleanliness adequate, and the continental breakfast weak.  The nearby airport had planes flying overhead, but that stopped around 10 pm and didn't resume until 6 am.The only good was finding the Brick House Tavern nearby at the next intersection.  Great spot to lounge around and enjoy yourself for a few hours watching television in a much more comfortable environment.  If you're looking for a cheap overnight stop, this is the place.  Otherwise, spend a bit more and stay at any of the other nearby hotels.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r64625951-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
   </si>
   <si>
@@ -865,6 +1373,24 @@
   </si>
   <si>
     <t>My husband needed to be hospitalized while just before our return flight home.  This hotel was about 1/2 mile from the hospital.  I spent one night here using Choice Reward Points.  My room was slightly worn - chipped mirror, scratched furniture, worn tiles.  The room was very clean but they had used a strong floral air freshener that actually gave me a headache    I was in a King Bed Suite that included a sofa and micro/fridge.  They advertised free wifi, but I didn't try it.  Breakfast was very basic - cereal, pastries, muffins, and beverages.  The lobby and the grounds were attractive and well kept.  It was in a nice neighborhood with a good selection of shopping and restaurants within blocks of the hotel.  If it had not been for the air freshener (I am very bothered by odors)  I would definitely have paid to stay in my room for my remaining night in the Houston Area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d223416-r13566294-Red_Roof_Inn_Suites_Houston_Humble_IAH_Airport-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>13566294</t>
+  </si>
+  <si>
+    <t>02/15/2008</t>
+  </si>
+  <si>
+    <t>No problems</t>
+  </si>
+  <si>
+    <t>I was concerned about a review saying the wait for the airport shuttle was at least 2 hours, but from the time I called for the shuttle until the time it arrived was approx 15 minutes.The room was clean and comfortable, quieter than expected for being near a busy road and airport, and the staff was friendly.I just wish the breakfast choices would have been better. No fruit or yogourt and the juice was severely watered down.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1945,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1435,7 +1961,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1444,32 +1970,38 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1492,34 +2024,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1530,14 +2062,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>66</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
         <v>67</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1553,54 +2081,48 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1616,31 +2138,35 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -1653,7 +2179,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1669,34 +2195,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1707,8 +2233,12 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
       <c r="Y7" t="s">
         <v>88</v>
       </c>
@@ -1747,10 +2277,14 @@
         <v>93</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -1763,7 +2297,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1779,40 +2313,40 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
         <v>94</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>99</v>
-      </c>
       <c r="O9" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -1867,13 +2401,15 @@
         <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
+        <v>61</v>
+      </c>
+      <c r="P10" t="n">
         <v>5</v>
       </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -1885,7 +2421,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -1901,7 +2437,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1910,26 +2446,22 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" t="s">
-        <v>53</v>
-      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -1942,7 +2474,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -1958,47 +2490,41 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>114</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>115</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>116</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>117</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>118</v>
       </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>112</v>
-      </c>
       <c r="O12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
@@ -2048,7 +2574,7 @@
         <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2099,26 +2625,20 @@
         <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
         <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -2162,33 +2682,23 @@
         <v>138</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>132</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
@@ -2204,41 +2714,41 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>140</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>141</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>142</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>143</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>144</v>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>145</v>
-      </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>1</v>
@@ -2249,7 +2759,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2265,46 +2775,44 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>147</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>148</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>149</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>150</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>151</v>
       </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>152</v>
-      </c>
       <c r="O17" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
         <v>5</v>
       </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2312,7 +2820,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -2328,46 +2836,44 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
         <v>154</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>155</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>156</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>157</v>
       </c>
-      <c r="L18" t="s">
-        <v>158</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>159</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="n">
+      <c r="Q18" t="n">
         <v>3</v>
       </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2375,7 +2881,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
@@ -2391,35 +2897,31 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
         <v>161</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>162</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>163</v>
       </c>
-      <c r="K19" t="s">
-        <v>164</v>
-      </c>
-      <c r="L19" t="s">
-        <v>165</v>
-      </c>
       <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>159</v>
-      </c>
-      <c r="O19" t="s">
-        <v>58</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -2432,7 +2934,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
@@ -2448,54 +2950,48 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
         <v>166</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>167</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>168</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>169</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>170</v>
       </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>171</v>
-      </c>
       <c r="O20" t="s">
-        <v>75</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
@@ -2535,19 +3031,19 @@
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>177</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
-      <c r="S21" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>3</v>
@@ -2558,7 +3054,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
@@ -2595,26 +3091,20 @@
         <v>182</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
         <v>183</v>
       </c>
       <c r="O22" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
@@ -2658,21 +3148,19 @@
         <v>189</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
         <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -2721,16 +3209,24 @@
         <v>195</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
@@ -2753,7 +3249,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2762,35 +3258,37 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
-        <v>177</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2798,7 +3296,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26">
@@ -2814,7 +3312,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2823,41 +3321,37 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
         <v>202</v>
       </c>
-      <c r="J26" t="s">
-        <v>203</v>
-      </c>
-      <c r="K26" t="s">
-        <v>204</v>
-      </c>
-      <c r="L26" t="s">
-        <v>205</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>206</v>
-      </c>
       <c r="O26" t="s">
-        <v>58</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2865,7 +3359,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
@@ -2881,7 +3375,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2890,39 +3384,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O27" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28">
@@ -2938,7 +3436,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2947,37 +3445,37 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
         <v>215</v>
       </c>
-      <c r="J28" t="s">
-        <v>216</v>
-      </c>
-      <c r="K28" t="s">
-        <v>217</v>
-      </c>
-      <c r="L28" t="s">
-        <v>218</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+      <c r="O28" t="s">
+        <v>78</v>
+      </c>
       <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>1</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2985,7 +3483,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29">
@@ -3001,7 +3499,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3010,41 +3508,37 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O29" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3052,7 +3546,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30">
@@ -3068,7 +3562,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3077,41 +3571,37 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
+        <v>230</v>
+      </c>
+      <c r="J30" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
         <v>227</v>
       </c>
-      <c r="J30" t="s">
-        <v>228</v>
-      </c>
-      <c r="K30" t="s">
-        <v>229</v>
-      </c>
-      <c r="L30" t="s">
-        <v>230</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>225</v>
-      </c>
       <c r="O30" t="s">
-        <v>58</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3119,7 +3609,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31">
@@ -3135,7 +3625,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3144,37 +3634,33 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J31" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K31" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O31" t="s">
-        <v>58</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
         <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -3186,7 +3672,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3688,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3211,25 +3697,25 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
         <v>240</v>
       </c>
-      <c r="J32" t="s">
-        <v>241</v>
-      </c>
-      <c r="K32" t="s">
-        <v>242</v>
-      </c>
-      <c r="L32" t="s">
-        <v>243</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>244</v>
-      </c>
       <c r="O32" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3243,7 +3729,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33">
@@ -3259,7 +3745,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3268,26 +3754,22 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
-      <c r="N33" t="s">
-        <v>251</v>
-      </c>
-      <c r="O33" t="s">
-        <v>58</v>
-      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
         <v>1</v>
       </c>
@@ -3295,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -3355,21 +3837,15 @@
       <c r="O34" t="s">
         <v>53</v>
       </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3414,13 +3890,13 @@
         <v>264</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
         <v>265</v>
       </c>
       <c r="O35" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -3428,12 +3904,8 @@
       <c r="Q35" t="n">
         <v>3</v>
       </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3</v>
-      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>4</v>
@@ -3444,7 +3916,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
@@ -3460,50 +3932,46 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
         <v>267</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>268</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>269</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>270</v>
       </c>
-      <c r="L36" t="s">
-        <v>271</v>
-      </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="O36" t="s">
-        <v>58</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3511,7 +3979,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
@@ -3527,50 +3995,46 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" t="s">
         <v>274</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>275</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
         <v>276</v>
       </c>
-      <c r="K37" t="s">
-        <v>277</v>
-      </c>
-      <c r="L37" t="s">
-        <v>278</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" t="s">
-        <v>279</v>
-      </c>
       <c r="O37" t="s">
-        <v>177</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3578,7 +4042,1675 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>278</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>279</v>
+      </c>
+      <c r="J38" t="s">
         <v>280</v>
+      </c>
+      <c r="K38" t="s">
+        <v>281</v>
+      </c>
+      <c r="L38" t="s">
+        <v>282</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>288</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>290</v>
+      </c>
+      <c r="J40" t="s">
+        <v>291</v>
+      </c>
+      <c r="K40" t="s">
+        <v>292</v>
+      </c>
+      <c r="L40" t="s">
+        <v>293</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>288</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>295</v>
+      </c>
+      <c r="J41" t="s">
+        <v>296</v>
+      </c>
+      <c r="K41" t="s">
+        <v>297</v>
+      </c>
+      <c r="L41" t="s">
+        <v>298</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>300</v>
+      </c>
+      <c r="J42" t="s">
+        <v>301</v>
+      </c>
+      <c r="K42" t="s">
+        <v>302</v>
+      </c>
+      <c r="L42" t="s">
+        <v>303</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>288</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>305</v>
+      </c>
+      <c r="J43" t="s">
+        <v>306</v>
+      </c>
+      <c r="K43" t="s">
+        <v>307</v>
+      </c>
+      <c r="L43" t="s">
+        <v>308</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>309</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>311</v>
+      </c>
+      <c r="J44" t="s">
+        <v>312</v>
+      </c>
+      <c r="K44" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" t="s">
+        <v>314</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>315</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>317</v>
+      </c>
+      <c r="J45" t="s">
+        <v>318</v>
+      </c>
+      <c r="K45" t="s">
+        <v>319</v>
+      </c>
+      <c r="L45" t="s">
+        <v>320</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>315</v>
+      </c>
+      <c r="O45" t="s">
+        <v>78</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>322</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>323</v>
+      </c>
+      <c r="J46" t="s">
+        <v>324</v>
+      </c>
+      <c r="K46" t="s">
+        <v>325</v>
+      </c>
+      <c r="L46" t="s">
+        <v>326</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>327</v>
+      </c>
+      <c r="O46" t="s">
+        <v>234</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>329</v>
+      </c>
+      <c r="J47" t="s">
+        <v>330</v>
+      </c>
+      <c r="K47" t="s">
+        <v>331</v>
+      </c>
+      <c r="L47" t="s">
+        <v>332</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>334</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>335</v>
+      </c>
+      <c r="J48" t="s">
+        <v>336</v>
+      </c>
+      <c r="K48" t="s">
+        <v>337</v>
+      </c>
+      <c r="L48" t="s">
+        <v>338</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>339</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>341</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>342</v>
+      </c>
+      <c r="J49" t="s">
+        <v>343</v>
+      </c>
+      <c r="K49" t="s">
+        <v>344</v>
+      </c>
+      <c r="L49" t="s">
+        <v>345</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>346</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>353</v>
+      </c>
+      <c r="O50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>355</v>
+      </c>
+      <c r="J51" t="s">
+        <v>356</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s">
+        <v>358</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>353</v>
+      </c>
+      <c r="O51" t="s">
+        <v>78</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>360</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>361</v>
+      </c>
+      <c r="J52" t="s">
+        <v>362</v>
+      </c>
+      <c r="K52" t="s">
+        <v>363</v>
+      </c>
+      <c r="L52" t="s">
+        <v>364</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>365</v>
+      </c>
+      <c r="O52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>367</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>368</v>
+      </c>
+      <c r="J53" t="s">
+        <v>369</v>
+      </c>
+      <c r="K53" t="s">
+        <v>370</v>
+      </c>
+      <c r="L53" t="s">
+        <v>371</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>372</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>373</v>
+      </c>
+      <c r="J54" t="s">
+        <v>374</v>
+      </c>
+      <c r="K54" t="s">
+        <v>375</v>
+      </c>
+      <c r="L54" t="s">
+        <v>376</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>377</v>
+      </c>
+      <c r="O54" t="s">
+        <v>234</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>378</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>379</v>
+      </c>
+      <c r="J55" t="s">
+        <v>380</v>
+      </c>
+      <c r="K55" t="s">
+        <v>381</v>
+      </c>
+      <c r="L55" t="s">
+        <v>382</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>383</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>385</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>386</v>
+      </c>
+      <c r="J56" t="s">
+        <v>387</v>
+      </c>
+      <c r="K56" t="s">
+        <v>388</v>
+      </c>
+      <c r="L56" t="s">
+        <v>389</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>390</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>392</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>393</v>
+      </c>
+      <c r="J57" t="s">
+        <v>394</v>
+      </c>
+      <c r="K57" t="s">
+        <v>395</v>
+      </c>
+      <c r="L57" t="s">
+        <v>396</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>397</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>399</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>400</v>
+      </c>
+      <c r="J58" t="s">
+        <v>401</v>
+      </c>
+      <c r="K58" t="s">
+        <v>402</v>
+      </c>
+      <c r="L58" t="s">
+        <v>403</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O58" t="s">
+        <v>78</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>405</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>406</v>
+      </c>
+      <c r="J59" t="s">
+        <v>407</v>
+      </c>
+      <c r="K59" t="s">
+        <v>408</v>
+      </c>
+      <c r="L59" t="s">
+        <v>409</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>410</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>412</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>413</v>
+      </c>
+      <c r="J60" t="s">
+        <v>414</v>
+      </c>
+      <c r="K60" t="s">
+        <v>415</v>
+      </c>
+      <c r="L60" t="s">
+        <v>416</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>417</v>
+      </c>
+      <c r="O60" t="s">
+        <v>234</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>419</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>420</v>
+      </c>
+      <c r="J61" t="s">
+        <v>421</v>
+      </c>
+      <c r="K61" t="s">
+        <v>422</v>
+      </c>
+      <c r="L61" t="s">
+        <v>423</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>424</v>
+      </c>
+      <c r="O61" t="s">
+        <v>78</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>426</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>427</v>
+      </c>
+      <c r="J62" t="s">
+        <v>428</v>
+      </c>
+      <c r="K62" t="s">
+        <v>429</v>
+      </c>
+      <c r="L62" t="s">
+        <v>430</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>431</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34671</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>433</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>434</v>
+      </c>
+      <c r="J63" t="s">
+        <v>435</v>
+      </c>
+      <c r="K63" t="s">
+        <v>436</v>
+      </c>
+      <c r="L63" t="s">
+        <v>437</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>438</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
